--- a/Lava3.TestFiles/TestFiles/Test.xlsx
+++ b/Lava3.TestFiles/TestFiles/Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="585" windowWidth="15555" windowHeight="18030" tabRatio="554" activeTab="2"/>
+    <workbookView xWindow="510" yWindow="585" windowWidth="15555" windowHeight="13155" tabRatio="554"/>
   </bookViews>
   <sheets>
     <sheet name="Annual Summary" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="116">
   <si>
     <t>Description</t>
   </si>
@@ -340,13 +340,44 @@
   </si>
   <si>
     <t>Non-Sterling Transaction Fee</t>
+  </si>
+  <si>
+    <t>NASA</t>
+  </si>
+  <si>
+    <t>Dilbert 01</t>
+  </si>
+  <si>
+    <t>Big Bird</t>
+  </si>
+  <si>
+    <t>Dilbert 02</t>
+  </si>
+  <si>
+    <t>Total Paid</t>
+  </si>
+  <si>
+    <t>Day Rate</t>
+  </si>
+  <si>
+    <t>Light bulb</t>
+  </si>
+  <si>
+    <t>Office Supplies</t>
+  </si>
+  <si>
+    <t>Train Ticket</t>
+  </si>
+  <si>
+    <t>Weekly Rebate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="11">
+  <numFmts count="12">
+    <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.00_)"/>
@@ -1996,17 +2027,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="26" fillId="0" borderId="0" xfId="756" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="748" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="748" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2057,9 +2082,6 @@
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="30" fillId="2" borderId="3" xfId="850" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2104,9 +2126,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="25" fillId="12" borderId="5" xfId="743" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2124,7 +2143,6 @@
     <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="770" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="26" fillId="0" borderId="0" xfId="756" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2157,7 +2175,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2183,6 +2200,20 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="19" fillId="0" borderId="0" xfId="756" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3513,11 +3544,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AB76"/>
+  <dimension ref="A1:AB75"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12"/>
@@ -3540,63 +3571,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="12.75">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="83" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="B1" s="83"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
     </row>
     <row r="2" spans="1:25" ht="12.75">
       <c r="A2" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
     </row>
     <row r="3" spans="1:25" ht="12.75">
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>49</v>
       </c>
       <c r="F3" s="140" t="s">
@@ -3604,1173 +3635,1206 @@
       </c>
       <c r="G3" s="140"/>
       <c r="H3" s="140"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-    </row>
-    <row r="4" spans="1:25" s="113" customFormat="1" ht="12.75">
-      <c r="A4" s="66" t="s">
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+    </row>
+    <row r="4" spans="1:25" s="108" customFormat="1" ht="12.75">
+      <c r="A4" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-    </row>
-    <row r="5" spans="1:25" s="114" customFormat="1" ht="12.75">
-      <c r="A5" s="117"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24"/>
-    </row>
-    <row r="6" spans="1:25" s="114" customFormat="1" ht="12.75">
-      <c r="A6" s="68"/>
-      <c r="B6" s="69" t="s">
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+    </row>
+    <row r="5" spans="1:25" s="109" customFormat="1" ht="12.75">
+      <c r="A5" s="111"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="22"/>
+    </row>
+    <row r="6" spans="1:25" s="109" customFormat="1" ht="12.75">
+      <c r="A6" s="65"/>
+      <c r="B6" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="119">
+      <c r="C6" s="113">
         <f t="shared" ref="C6:I6" si="0">SUM(C5:C5)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="119">
+      <c r="D6" s="113">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="119">
+      <c r="E6" s="113">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="119">
+      <c r="F6" s="113">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="119">
+      <c r="G6" s="113">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H6" s="119">
+      <c r="H6" s="113">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="119">
+      <c r="I6" s="113">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
-    </row>
-    <row r="7" spans="1:25" s="114" customFormat="1" ht="12.75">
-      <c r="A7" s="110"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-    </row>
-    <row r="8" spans="1:25" s="62" customFormat="1" ht="12.75">
-      <c r="A8" s="63"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="24"/>
-    </row>
-    <row r="9" spans="1:25" s="57" customFormat="1" ht="12.75">
-      <c r="C9" s="23"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+    </row>
+    <row r="7" spans="1:25" s="109" customFormat="1" ht="12.75">
+      <c r="A7" s="105"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+    </row>
+    <row r="8" spans="1:25" s="59" customFormat="1" ht="12.75">
+      <c r="A8" s="60"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+    </row>
+    <row r="9" spans="1:25" s="54" customFormat="1" ht="12.75">
+      <c r="C9" s="21"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
     </row>
     <row r="10" spans="1:25" ht="12.75">
-      <c r="A10" s="3" t="str">
-        <f>A1</f>
-        <v>ACME Consulting</v>
-      </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
+      <c r="A10" s="3"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
     </row>
     <row r="11" spans="1:25" ht="12.75">
       <c r="A11" s="137" t="s">
         <v>56</v>
       </c>
       <c r="B11" s="137"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
     </row>
     <row r="12" spans="1:25" ht="12.75" customHeight="1">
-      <c r="C12" s="23"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="138" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="E12" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
     </row>
     <row r="13" spans="1:25" ht="25.5">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="26" t="s">
+      <c r="A13" s="136" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="136" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="24" t="s">
         <v>58</v>
       </c>
       <c r="D13" s="139"/>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-    </row>
-    <row r="14" spans="1:25" ht="37.5" customHeight="1">
-      <c r="A14" s="5"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-    </row>
-    <row r="15" spans="1:25" ht="27.75" customHeight="1">
-      <c r="A15" s="5"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="1">
-        <f>SUM(E15:I15)</f>
+      <c r="G13" s="131" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+    </row>
+    <row r="14" spans="1:25" ht="27.75" customHeight="1">
+      <c r="A14" s="5">
+        <v>42491</v>
+      </c>
+      <c r="B14" s="80" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5.12</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21">
+        <v>5.12</v>
+      </c>
+      <c r="H14" s="21"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+    </row>
+    <row r="15" spans="1:25" ht="12.75">
+      <c r="A15" s="81">
+        <v>42492</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="135">
+        <v>20.45</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21">
+        <v>20.45</v>
+      </c>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+    </row>
+    <row r="16" spans="1:25" ht="12.75">
+      <c r="A16" s="84"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+    </row>
+    <row r="17" spans="1:28" ht="12.75">
+      <c r="A17" s="85"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+    </row>
+    <row r="18" spans="1:28" ht="12.75">
+      <c r="C18" s="1">
+        <f>SUM(E18:I18)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-    </row>
-    <row r="16" spans="1:25" ht="12.75">
-      <c r="A16" s="85"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-    </row>
-    <row r="17" spans="1:28" ht="12.75">
-      <c r="A17" s="88"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-    </row>
-    <row r="18" spans="1:28" ht="12.75">
-      <c r="A18" s="89"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
+      <c r="D18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
     </row>
     <row r="19" spans="1:28" ht="12.75">
-      <c r="C19" s="1">
-        <f>SUM(E19:I19)</f>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="18">
+        <f>SUM(C14:C18)</f>
+        <v>25.57</v>
+      </c>
+      <c r="D19" s="17">
+        <f>C19+SUM(D14:D18)</f>
+        <v>25.57</v>
+      </c>
+      <c r="E19" s="17">
+        <f>SUM(E14:E18)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
+      <c r="F19" s="17">
+        <f>SUM(F14:F18)</f>
+        <v>20.45</v>
+      </c>
+      <c r="G19" s="17">
+        <f>SUM(G14:G18)</f>
+        <v>5.12</v>
+      </c>
+      <c r="H19" s="17">
+        <f>SUM(H15:H18)</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="17">
+        <f>SUM(I15:I18)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
     </row>
     <row r="20" spans="1:28" ht="12.75">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20">
-        <f>SUM(C14:C19)</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="19">
-        <f>C20+SUM(D14:D19)</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="19">
-        <f t="shared" ref="E20:G20" si="1">SUM(E14:E19)</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="19">
-        <f>SUM(H16:H19)</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="19">
-        <f>SUM(I16:I19)</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
+      <c r="A20" s="5"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
     </row>
     <row r="21" spans="1:28" ht="12.75">
-      <c r="A21" s="5"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-      <c r="X21" s="24"/>
-    </row>
-    <row r="22" spans="1:28" ht="12.75">
-      <c r="A22" s="137" t="str">
-        <f>A1</f>
-        <v>ACME Consulting</v>
-      </c>
-      <c r="B22" s="137"/>
-      <c r="C22" s="3"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="24"/>
+      <c r="A21" s="137"/>
+      <c r="B21" s="137"/>
+      <c r="C21" s="3"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="22"/>
+    </row>
+    <row r="22" spans="1:28" ht="12.75" customHeight="1">
+      <c r="A22" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="76"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
     </row>
     <row r="23" spans="1:28" ht="12.75" customHeight="1">
-      <c r="A23" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="79"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="90" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="91" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="91" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="91" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="J23" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="K23" s="132" t="s">
+        <v>111</v>
+      </c>
+      <c r="N23" s="11"/>
       <c r="O23" s="24"/>
       <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-      <c r="X23" s="24"/>
-    </row>
-    <row r="24" spans="1:28" ht="12.75" customHeight="1">
-      <c r="A24" s="4"/>
-      <c r="B24" s="95" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="96" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="96" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="96" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="80" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24" s="96" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="I24" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="N24" s="12"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="24"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="24"/>
-      <c r="Z24" s="24"/>
-      <c r="AA24" s="24"/>
-      <c r="AB24" s="24"/>
-    </row>
-    <row r="25" spans="1:28" ht="15.75">
-      <c r="A25" s="21"/>
-      <c r="B25" s="93"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="13"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="24"/>
-      <c r="Z25" s="24"/>
-      <c r="AA25" s="24"/>
-      <c r="AB25" s="24"/>
-    </row>
-    <row r="26" spans="1:28" s="113" customFormat="1" ht="15.75">
-      <c r="A26" s="111"/>
-      <c r="B26" s="93"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="111"/>
-      <c r="F26" s="97"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="22"/>
+    </row>
+    <row r="24" spans="1:28" ht="12.75">
+      <c r="A24" s="19"/>
+      <c r="B24" s="90" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="125" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" s="133">
+        <v>42370</v>
+      </c>
+      <c r="E24" s="133">
+        <v>42401</v>
+      </c>
+      <c r="F24" s="91">
+        <f>30</f>
+        <v>30</v>
+      </c>
+      <c r="G24" s="91">
+        <v>7.5</v>
+      </c>
+      <c r="H24" s="91">
+        <v>1</v>
+      </c>
+      <c r="I24" s="91">
+        <v>500</v>
+      </c>
+      <c r="J24" s="91">
+        <v>500</v>
+      </c>
+      <c r="K24" s="132">
+        <v>500</v>
+      </c>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="22"/>
+    </row>
+    <row r="25" spans="1:28" s="108" customFormat="1" ht="15.75">
+      <c r="A25" s="106"/>
+      <c r="B25" s="134" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="125" t="s">
+        <v>109</v>
+      </c>
+      <c r="D25" s="133">
+        <v>42401</v>
+      </c>
+      <c r="E25" s="133"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91">
+        <v>15</v>
+      </c>
+      <c r="H25" s="91">
+        <v>1</v>
+      </c>
+      <c r="I25" s="91">
+        <v>1000</v>
+      </c>
+      <c r="J25" s="91"/>
+      <c r="K25" s="132"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="22"/>
+      <c r="AB25" s="22"/>
+    </row>
+    <row r="26" spans="1:28" s="78" customFormat="1" ht="15.75">
+      <c r="A26" s="79"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="92"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="94"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="24"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="24"/>
-      <c r="Z26" s="24"/>
-      <c r="AA26" s="24"/>
-      <c r="AB26" s="24"/>
-    </row>
-    <row r="27" spans="1:28" s="82" customFormat="1" ht="15.75">
-      <c r="A27" s="83"/>
-      <c r="B27" s="93"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="13"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="24"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="24"/>
-      <c r="Z27" s="24"/>
-      <c r="AA27" s="24"/>
-      <c r="AB27" s="24"/>
-    </row>
-    <row r="28" spans="1:28" ht="12.75">
-      <c r="A28" s="30"/>
-      <c r="B28" s="36" t="s">
+      <c r="H26" s="13"/>
+      <c r="I26" s="12"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="22"/>
+      <c r="Y26" s="22"/>
+      <c r="Z26" s="22"/>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="22"/>
+    </row>
+    <row r="27" spans="1:28" ht="12.75">
+      <c r="A27" s="28"/>
+      <c r="B27" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="31">
-        <f>SUM(G25:G27)</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="78">
-        <f>SUM(H25:H27)</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="32">
-        <f>SUM(I25:I27)</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="24"/>
-    </row>
-    <row r="29" spans="1:28" ht="15">
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="H29" s="33">
-        <f>H28/275</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="81" t="s">
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="29">
+        <f>SUM(G24:G26)</f>
+        <v>22.5</v>
+      </c>
+      <c r="H27" s="75">
+        <f>SUM(H24:H26)</f>
+        <v>2</v>
+      </c>
+      <c r="I27" s="30">
+        <f>SUM(I24:I26)</f>
+        <v>1500</v>
+      </c>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+    </row>
+    <row r="28" spans="1:28" ht="15">
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="H28" s="31">
+        <f>H27/275</f>
+        <v>7.2727272727272727E-3</v>
+      </c>
+      <c r="I28" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+    </row>
+    <row r="29" spans="1:28" ht="12.75">
+      <c r="B29" s="7"/>
+      <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:28" ht="12.75">
-      <c r="B30" s="7"/>
-      <c r="F30" s="11"/>
-    </row>
-    <row r="31" spans="1:28" ht="12.75">
-      <c r="B31" s="6"/>
-    </row>
-    <row r="32" spans="1:28">
-      <c r="C32" s="9"/>
+      <c r="B30" s="6"/>
+    </row>
+    <row r="31" spans="1:28">
+      <c r="C31" s="9"/>
+    </row>
+    <row r="33" spans="1:8" ht="12.75">
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
     </row>
     <row r="34" spans="1:8" ht="12.75">
-      <c r="B34" s="76"/>
-      <c r="C34" s="76"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
     </row>
     <row r="35" spans="1:8" ht="12.75">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
     </row>
     <row r="36" spans="1:8" ht="12.75">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
     </row>
     <row r="37" spans="1:8" ht="12.75">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
     </row>
     <row r="38" spans="1:8" ht="12.75">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
     </row>
     <row r="39" spans="1:8" ht="12.75">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
     </row>
     <row r="40" spans="1:8" ht="12.75">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
     </row>
     <row r="41" spans="1:8" ht="12.75">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
     </row>
     <row r="42" spans="1:8" ht="12.75">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
     </row>
     <row r="43" spans="1:8" ht="12.75">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
     </row>
     <row r="44" spans="1:8" ht="12.75">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
     </row>
     <row r="45" spans="1:8" ht="12.75">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
     </row>
     <row r="46" spans="1:8" ht="12.75">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
     </row>
     <row r="47" spans="1:8" ht="12.75">
-      <c r="A47" s="24"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
     </row>
     <row r="48" spans="1:8" ht="12.75">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
+      <c r="A48" s="22"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
     </row>
     <row r="49" spans="1:8" ht="12.75">
-      <c r="A49" s="24"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
+      <c r="A49" s="22"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
     </row>
     <row r="50" spans="1:8" ht="12.75">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
+      <c r="A50" s="22"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
     </row>
     <row r="51" spans="1:8" ht="12.75">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
+      <c r="A51" s="22"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
     </row>
     <row r="52" spans="1:8" ht="12.75">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
     </row>
     <row r="53" spans="1:8" ht="12.75">
-      <c r="A53" s="24"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
     </row>
     <row r="54" spans="1:8" ht="12.75">
-      <c r="A54" s="24"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
     </row>
     <row r="55" spans="1:8" ht="12.75">
-      <c r="A55" s="24"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
+      <c r="A55" s="22"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
     </row>
     <row r="56" spans="1:8" ht="12.75">
-      <c r="A56" s="24"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
+      <c r="A56" s="22"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
     </row>
     <row r="57" spans="1:8" ht="12.75">
-      <c r="A57" s="24"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
+      <c r="A57" s="22"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
     </row>
     <row r="58" spans="1:8" ht="12.75">
-      <c r="A58" s="24"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
+      <c r="A58" s="22"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
     </row>
     <row r="59" spans="1:8" ht="12.75">
-      <c r="A59" s="24"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
+      <c r="A59" s="22"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
     </row>
     <row r="60" spans="1:8" ht="12.75">
-      <c r="A60" s="24"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
+      <c r="A60" s="22"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
     </row>
     <row r="61" spans="1:8" ht="12.75">
-      <c r="A61" s="24"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
+      <c r="A61" s="22"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
     </row>
     <row r="62" spans="1:8" ht="12.75">
-      <c r="A62" s="24"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
+      <c r="A62" s="22"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
     </row>
     <row r="63" spans="1:8" ht="12.75">
-      <c r="A63" s="24"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="24"/>
+      <c r="A63" s="22"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
     </row>
     <row r="64" spans="1:8" ht="12.75">
-      <c r="A64" s="24"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="24"/>
-    </row>
-    <row r="65" spans="1:8" ht="12.75">
-      <c r="A65" s="24"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="24"/>
-    </row>
-    <row r="66" spans="1:8" ht="12.75">
-      <c r="B66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
-    </row>
-    <row r="67" spans="1:8" ht="12.75">
-      <c r="B67" s="24"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="24"/>
-    </row>
-    <row r="68" spans="1:8" ht="12.75">
-      <c r="B68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24"/>
-    </row>
-    <row r="69" spans="1:8" ht="12.75">
-      <c r="B69" s="24"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
-    </row>
-    <row r="70" spans="1:8" ht="12.75">
-      <c r="B70" s="24"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="24"/>
-    </row>
-    <row r="71" spans="1:8" ht="12.75">
-      <c r="B71" s="24"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="24"/>
-    </row>
-    <row r="72" spans="1:8" ht="12.75">
-      <c r="D72" s="24"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="24"/>
-    </row>
-    <row r="73" spans="1:8" ht="12.75">
-      <c r="D73" s="24"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
-    </row>
-    <row r="74" spans="1:8" ht="12.75">
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="24"/>
-    </row>
-    <row r="75" spans="1:8" ht="12.75">
-      <c r="D75" s="24"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="24"/>
-    </row>
-    <row r="76" spans="1:8" ht="12.75">
-      <c r="D76" s="24"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+    </row>
+    <row r="65" spans="2:8" ht="12.75">
+      <c r="B65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+    </row>
+    <row r="66" spans="2:8" ht="12.75">
+      <c r="B66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+    </row>
+    <row r="67" spans="2:8" ht="12.75">
+      <c r="B67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+    </row>
+    <row r="68" spans="2:8" ht="12.75">
+      <c r="B68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
+    </row>
+    <row r="69" spans="2:8" ht="12.75">
+      <c r="B69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+    </row>
+    <row r="70" spans="2:8" ht="12.75">
+      <c r="B70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
+    </row>
+    <row r="71" spans="2:8" ht="12.75">
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22"/>
+    </row>
+    <row r="72" spans="2:8" ht="12.75">
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
+    </row>
+    <row r="73" spans="2:8" ht="12.75">
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+    </row>
+    <row r="74" spans="2:8" ht="12.75">
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+    </row>
+    <row r="75" spans="2:8" ht="12.75">
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
     </row>
   </sheetData>
   <sortState ref="A5:AJ44">
@@ -4780,9 +4844,13 @@
   <mergeCells count="4">
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="F3:H3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C24" r:id="rId1"/>
+    <hyperlink ref="C25" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -4793,7 +4861,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
@@ -4804,7 +4872,7 @@
     <col min="2" max="2" width="53.125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="13" style="40" customWidth="1"/>
+    <col min="5" max="5" width="13" style="38" customWidth="1"/>
     <col min="6" max="6" width="12.125" customWidth="1"/>
     <col min="7" max="7" width="24.875" customWidth="1"/>
     <col min="8" max="8" width="42.75" customWidth="1"/>
@@ -4814,175 +4882,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="44"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="A1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
       <c r="F1" s="141" t="s">
         <v>26</v>
       </c>
       <c r="G1" s="141"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="128" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A3" s="129">
+    <row r="3" spans="1:9" s="122" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A3" s="123">
         <v>42466</v>
       </c>
-      <c r="B3" s="128" t="s">
+      <c r="B3" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="128">
+      <c r="G3" s="122">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="128" customFormat="1" ht="15">
-      <c r="A4" s="129">
+    <row r="4" spans="1:9" s="122" customFormat="1" ht="15">
+      <c r="A4" s="123">
         <v>42468</v>
       </c>
-      <c r="B4" s="128" t="s">
+      <c r="B4" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="122">
         <v>23.62</v>
       </c>
-      <c r="D4" s="128">
+      <c r="D4" s="122">
         <v>0</v>
       </c>
-      <c r="E4" s="128">
+      <c r="E4" s="122">
         <v>76.38</v>
       </c>
-      <c r="F4" s="128">
+      <c r="F4" s="122">
         <v>-23.62</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="128" customFormat="1" ht="15">
-      <c r="A5" s="129">
+    <row r="5" spans="1:9" s="122" customFormat="1" ht="15">
+      <c r="A5" s="123">
         <v>42471</v>
       </c>
-      <c r="B5" s="128" t="s">
+      <c r="B5" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="128">
+      <c r="C5" s="122">
         <v>0.96</v>
       </c>
-      <c r="D5" s="128">
+      <c r="D5" s="122">
         <v>0</v>
       </c>
-      <c r="E5" s="128">
+      <c r="E5" s="122">
         <v>75.42</v>
       </c>
-      <c r="F5" s="128">
+      <c r="F5" s="122">
         <v>-24.580000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="127" customFormat="1" ht="15">
-      <c r="A6" s="130">
+    <row r="6" spans="1:9" s="121" customFormat="1" ht="15">
+      <c r="A6" s="124">
         <v>42609</v>
       </c>
-      <c r="B6" s="133" t="s">
+      <c r="B6" s="127" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="127">
+      <c r="C6" s="121">
         <v>3.1</v>
       </c>
-      <c r="D6" s="127">
+      <c r="D6" s="121">
         <v>0</v>
       </c>
-      <c r="E6" s="127">
+      <c r="E6" s="121">
         <v>72.320000000000007</v>
       </c>
-      <c r="F6" s="127">
+      <c r="F6" s="121">
         <v>-3.1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="127" customFormat="1" ht="15">
-      <c r="A7" s="130">
+    <row r="7" spans="1:9" s="121" customFormat="1" ht="15">
+      <c r="A7" s="124">
         <v>42610</v>
       </c>
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="121" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="127">
+      <c r="C7" s="121">
         <v>0</v>
       </c>
-      <c r="D7" s="127">
+      <c r="D7" s="121">
         <v>1000</v>
       </c>
-      <c r="E7" s="127">
+      <c r="E7" s="121">
         <v>1072.32</v>
       </c>
-      <c r="F7" s="127">
+      <c r="F7" s="121">
         <v>996.9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="127" customFormat="1" ht="15">
-      <c r="A8" s="130">
+    <row r="8" spans="1:9" s="121" customFormat="1" ht="15">
+      <c r="A8" s="124">
         <v>42611</v>
       </c>
-      <c r="B8" s="127" t="s">
+      <c r="B8" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="127">
+      <c r="C8" s="121">
         <v>34.99</v>
       </c>
-      <c r="D8" s="127">
+      <c r="D8" s="121">
         <v>0</v>
       </c>
-      <c r="E8" s="127">
+      <c r="E8" s="121">
         <v>1037.33</v>
       </c>
-      <c r="F8" s="127">
+      <c r="F8" s="121">
         <v>961.91</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="127" customFormat="1" ht="15">
-      <c r="A9" s="130">
+    <row r="9" spans="1:9" s="121" customFormat="1" ht="15">
+      <c r="A9" s="124">
         <v>42612</v>
       </c>
-      <c r="B9" s="132" t="s">
+      <c r="B9" s="126" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="127">
+      <c r="C9" s="121">
         <v>14.5</v>
       </c>
-      <c r="D9" s="127">
+      <c r="D9" s="121">
         <v>0</v>
       </c>
-      <c r="E9" s="127">
+      <c r="E9" s="121">
         <v>1022.8299999999999</v>
       </c>
-      <c r="F9" s="127">
+      <c r="F9" s="121">
         <v>947.41</v>
       </c>
     </row>
@@ -5004,21 +5072,21 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="16.625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="16.625" style="14" customWidth="1"/>
     <col min="2" max="2" width="19.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="45.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="18.75" style="2" customWidth="1"/>
     <col min="6" max="6" width="34.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.75" style="74" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="74" customWidth="1"/>
+    <col min="7" max="7" width="11.75" style="71" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="71" customWidth="1"/>
     <col min="9" max="9" width="47" style="2" customWidth="1"/>
     <col min="10" max="10" width="28.75" style="2" customWidth="1"/>
     <col min="11" max="12" width="9" style="2" customWidth="1"/>
@@ -5026,384 +5094,384 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="74" t="s">
+      <c r="H1" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="74" customFormat="1" ht="15">
-      <c r="A2" s="117">
+    <row r="2" spans="1:10" s="71" customFormat="1" ht="15">
+      <c r="A2" s="111">
         <v>42611</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="37">
         <v>42592</v>
       </c>
-      <c r="C2" s="117">
+      <c r="C2" s="111">
         <v>42524</v>
       </c>
-      <c r="D2" s="112" t="s">
+      <c r="D2" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="120">
+      <c r="E2" s="114">
         <v>-9</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="74">
+      <c r="F2" s="116"/>
+      <c r="G2" s="71">
         <v>3</v>
       </c>
-      <c r="H2" s="74">
+      <c r="H2" s="71">
         <v>2</v>
       </c>
-      <c r="I2" s="73"/>
-      <c r="J2" s="72"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="117">
+      <c r="A3" s="111">
         <v>42611</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="90">
+      <c r="B3" s="37"/>
+      <c r="C3" s="86">
         <v>42544</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="61">
+      <c r="E3" s="58">
         <v>-13</v>
       </c>
-      <c r="F3" s="122"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
+      <c r="F3" s="116"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="117">
+      <c r="A4" s="111">
         <v>42611</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="37">
         <v>42592</v>
       </c>
-      <c r="C4" s="104">
+      <c r="C4" s="99">
         <v>42562</v>
       </c>
-      <c r="D4" s="125" t="s">
+      <c r="D4" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="61">
+      <c r="E4" s="58">
         <v>-11.99</v>
       </c>
-      <c r="F4" s="122"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
+      <c r="F4" s="116"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="104"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="111">
+      <c r="A5" s="99"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="106">
         <v>42581</v>
       </c>
-      <c r="D5" s="126" t="s">
+      <c r="D5" s="120" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="58">
         <v>-22.15</v>
       </c>
-      <c r="F5" s="122"/>
-      <c r="G5" s="75">
+      <c r="F5" s="116"/>
+      <c r="G5" s="72">
         <v>4</v>
       </c>
-      <c r="H5" s="75">
+      <c r="H5" s="72">
         <v>5</v>
       </c>
-      <c r="I5" s="73"/>
-      <c r="J5" s="72"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="69"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="104"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="111">
+      <c r="A6" s="99"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="106">
         <v>42581</v>
       </c>
-      <c r="D6" s="126" t="s">
+      <c r="D6" s="120" t="s">
         <v>88</v>
       </c>
-      <c r="E6" s="61">
+      <c r="E6" s="58">
         <v>-0.66</v>
       </c>
-      <c r="F6" s="122"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="74"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="71"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="104"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="111">
+      <c r="A7" s="99"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="106">
         <v>42585</v>
       </c>
-      <c r="D7" s="126" t="s">
+      <c r="D7" s="120" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="61">
+      <c r="E7" s="58">
         <v>-6.85</v>
       </c>
-      <c r="F7" s="122"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="72"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="69"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="39"/>
-      <c r="C8" s="111">
+      <c r="B8" s="37"/>
+      <c r="C8" s="106">
         <v>42590</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="61">
+      <c r="E8" s="58">
         <v>-25</v>
       </c>
-      <c r="F8" s="122"/>
+      <c r="F8" s="116"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="B9" s="39"/>
-      <c r="C9" s="111">
+      <c r="B9" s="37"/>
+      <c r="C9" s="106">
         <v>42592</v>
       </c>
-      <c r="D9" s="126" t="s">
+      <c r="D9" s="120" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="61">
+      <c r="E9" s="58">
         <v>-174</v>
       </c>
-      <c r="F9" s="122"/>
+      <c r="F9" s="116"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="B10" s="39"/>
-      <c r="C10" s="111">
+      <c r="B10" s="37"/>
+      <c r="C10" s="106">
         <v>42593</v>
       </c>
-      <c r="D10" s="126" t="s">
+      <c r="D10" s="120" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="61">
+      <c r="E10" s="58">
         <v>-35.020000000000003</v>
       </c>
-      <c r="F10" s="122"/>
+      <c r="F10" s="116"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="B11" s="39"/>
-      <c r="C11" s="111">
+      <c r="B11" s="37"/>
+      <c r="C11" s="106">
         <v>42594</v>
       </c>
-      <c r="D11" s="126" t="s">
+      <c r="D11" s="120" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="61">
+      <c r="E11" s="58">
         <v>-11.99</v>
       </c>
-      <c r="F11" s="122"/>
+      <c r="F11" s="116"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="111"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="111"/>
+      <c r="A12" s="106"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="106"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="75"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="113"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="72"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="108"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="111"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="111"/>
+      <c r="A13" s="106"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="106"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="122"/>
-      <c r="I13" s="73"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="116"/>
+      <c r="I13" s="70"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="B14" s="39"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="122"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="116"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="B15" s="39"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="122"/>
+      <c r="B15" s="37"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="116"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="E16" s="121"/>
-      <c r="F16" s="122"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="116"/>
     </row>
     <row r="17" spans="5:6">
-      <c r="E17" s="121"/>
-      <c r="F17" s="122"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="116"/>
     </row>
     <row r="18" spans="5:6">
-      <c r="E18" s="121"/>
-      <c r="F18" s="122"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="116"/>
     </row>
     <row r="19" spans="5:6">
-      <c r="E19" s="121"/>
-      <c r="F19" s="122"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="116"/>
     </row>
     <row r="20" spans="5:6">
-      <c r="E20" s="121"/>
-      <c r="F20" s="122"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="116"/>
     </row>
     <row r="21" spans="5:6">
-      <c r="E21" s="121"/>
-      <c r="F21" s="122"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="116"/>
     </row>
     <row r="22" spans="5:6">
-      <c r="E22" s="121"/>
-      <c r="F22" s="122"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="116"/>
     </row>
     <row r="23" spans="5:6">
-      <c r="E23" s="121"/>
+      <c r="E23" s="115"/>
     </row>
     <row r="24" spans="5:6">
-      <c r="E24" s="121"/>
+      <c r="E24" s="115"/>
     </row>
     <row r="25" spans="5:6">
-      <c r="E25" s="121"/>
+      <c r="E25" s="115"/>
     </row>
     <row r="26" spans="5:6">
-      <c r="E26" s="121"/>
+      <c r="E26" s="115"/>
     </row>
     <row r="27" spans="5:6">
-      <c r="E27" s="121"/>
+      <c r="E27" s="115"/>
     </row>
     <row r="28" spans="5:6">
-      <c r="E28" s="121"/>
+      <c r="E28" s="115"/>
     </row>
     <row r="29" spans="5:6">
-      <c r="E29" s="121"/>
+      <c r="E29" s="115"/>
     </row>
     <row r="30" spans="5:6">
-      <c r="E30" s="121"/>
+      <c r="E30" s="115"/>
     </row>
     <row r="31" spans="5:6">
-      <c r="E31" s="121"/>
+      <c r="E31" s="115"/>
     </row>
     <row r="32" spans="5:6">
-      <c r="E32" s="121"/>
+      <c r="E32" s="115"/>
     </row>
     <row r="33" spans="5:5">
-      <c r="E33" s="121"/>
+      <c r="E33" s="115"/>
     </row>
     <row r="34" spans="5:5">
-      <c r="E34" s="121"/>
+      <c r="E34" s="115"/>
     </row>
     <row r="35" spans="5:5">
-      <c r="E35" s="121"/>
+      <c r="E35" s="115"/>
     </row>
     <row r="36" spans="5:5">
-      <c r="E36" s="121"/>
+      <c r="E36" s="115"/>
     </row>
     <row r="37" spans="5:5">
-      <c r="E37" s="121"/>
+      <c r="E37" s="115"/>
     </row>
     <row r="38" spans="5:5">
-      <c r="E38" s="121"/>
+      <c r="E38" s="115"/>
     </row>
     <row r="39" spans="5:5">
-      <c r="E39" s="121"/>
+      <c r="E39" s="115"/>
     </row>
     <row r="40" spans="5:5">
-      <c r="E40" s="121"/>
+      <c r="E40" s="115"/>
     </row>
     <row r="41" spans="5:5">
-      <c r="E41" s="121"/>
+      <c r="E41" s="115"/>
     </row>
     <row r="42" spans="5:5">
-      <c r="E42" s="121"/>
+      <c r="E42" s="115"/>
     </row>
     <row r="43" spans="5:5">
-      <c r="E43" s="121"/>
+      <c r="E43" s="115"/>
     </row>
     <row r="44" spans="5:5">
-      <c r="E44" s="121"/>
+      <c r="E44" s="115"/>
     </row>
     <row r="45" spans="5:5">
-      <c r="E45" s="121"/>
+      <c r="E45" s="115"/>
     </row>
     <row r="46" spans="5:5">
-      <c r="E46" s="121"/>
+      <c r="E46" s="115"/>
     </row>
     <row r="47" spans="5:5">
-      <c r="E47" s="121"/>
+      <c r="E47" s="115"/>
     </row>
     <row r="48" spans="5:5">
-      <c r="E48" s="121"/>
+      <c r="E48" s="115"/>
     </row>
     <row r="49" spans="5:5">
-      <c r="E49" s="121"/>
+      <c r="E49" s="115"/>
     </row>
     <row r="50" spans="5:5">
-      <c r="E50" s="121"/>
+      <c r="E50" s="115"/>
     </row>
     <row r="51" spans="5:5">
-      <c r="E51" s="121"/>
+      <c r="E51" s="115"/>
     </row>
     <row r="52" spans="5:5">
-      <c r="E52" s="121"/>
+      <c r="E52" s="115"/>
     </row>
     <row r="53" spans="5:5">
-      <c r="E53" s="121"/>
+      <c r="E53" s="115"/>
     </row>
     <row r="54" spans="5:5">
-      <c r="E54" s="121"/>
+      <c r="E54" s="115"/>
     </row>
     <row r="55" spans="5:5">
-      <c r="E55" s="121"/>
+      <c r="E55" s="115"/>
     </row>
     <row r="56" spans="5:5">
-      <c r="E56" s="121"/>
+      <c r="E56" s="115"/>
     </row>
     <row r="57" spans="5:5">
-      <c r="E57" s="121"/>
+      <c r="E57" s="115"/>
     </row>
     <row r="58" spans="5:5">
-      <c r="E58" s="121"/>
+      <c r="E58" s="115"/>
     </row>
     <row r="59" spans="5:5">
-      <c r="E59" s="121"/>
+      <c r="E59" s="115"/>
     </row>
     <row r="60" spans="5:5">
-      <c r="E60" s="121"/>
+      <c r="E60" s="115"/>
     </row>
     <row r="61" spans="5:5">
-      <c r="E61" s="121"/>
+      <c r="E61" s="115"/>
     </row>
   </sheetData>
   <sortState ref="A2:J11">
@@ -5432,228 +5500,228 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="41" customFormat="1">
-      <c r="A2" s="108" t="s">
+    <row r="2" spans="1:3" s="39" customFormat="1">
+      <c r="A2" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="103" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="103" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="67" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="101" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="124" t="s">
+      <c r="A6" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="103" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="101" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="128" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="108"/>
-      <c r="B8" s="74"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="71"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="108"/>
-      <c r="B9" s="74"/>
+      <c r="A9" s="103"/>
+      <c r="B9" s="71"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="70"/>
-      <c r="B10" s="70"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="67"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="75"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="92"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="88"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="70"/>
-      <c r="B12" s="108"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="103"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="109"/>
-      <c r="B13" s="108"/>
+      <c r="A13" s="104"/>
+      <c r="B13" s="103"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="124" t="s">
+      <c r="A14" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="109" t="s">
+      <c r="B14" s="104" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="131" t="s">
+      <c r="C17" s="125" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="43" customFormat="1">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:3" s="41" customFormat="1">
+      <c r="A18" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="41" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="67" customFormat="1">
-      <c r="A19" s="99" t="s">
+    <row r="19" spans="1:3" s="64" customFormat="1">
+      <c r="A19" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="76" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="124" t="s">
+      <c r="A20" s="118" t="s">
         <v>101</v>
       </c>
-      <c r="B20" s="106" t="s">
+      <c r="B20" s="101" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="99" t="s">
+      <c r="A21" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="71" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="124" t="s">
+      <c r="A22" s="118" t="s">
         <v>102</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="52" customFormat="1">
-      <c r="A23" s="124" t="s">
+    <row r="23" spans="1:3" s="49" customFormat="1">
+      <c r="A23" s="118" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="49" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="108"/>
+      <c r="A24" s="103"/>
       <c r="B24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="108" t="s">
+      <c r="A25" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="86" t="s">
+      <c r="B25" s="82" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="105" t="s">
+      <c r="B26" s="100" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="124" t="s">
+      <c r="A27" s="118" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="124" t="s">
+      <c r="B27" s="118" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="108" t="s">
+      <c r="A28" s="103" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="106" t="s">
+      <c r="B28" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="124" t="s">
+      <c r="C28" s="118" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="124"/>
-      <c r="B31" s="124"/>
+      <c r="A31" s="118"/>
+      <c r="B31" s="118"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="109" t="s">
+      <c r="B33" s="104" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="99" t="s">
+      <c r="A34" s="94" t="s">
         <v>94</v>
       </c>
-      <c r="B34" s="74" t="s">
+      <c r="B34" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="124" t="s">
+      <c r="C34" s="118" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="99" t="s">
+      <c r="A35" s="94" t="s">
         <v>94</v>
       </c>
-      <c r="B35" s="107" t="s">
+      <c r="B35" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="124" t="s">
+      <c r="C35" s="118" t="s">
         <v>90</v>
       </c>
     </row>
@@ -5675,9 +5743,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -5690,143 +5758,143 @@
     <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.875" customWidth="1"/>
     <col min="9" max="9" width="17.375" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="53" customWidth="1"/>
-    <col min="11" max="11" width="9.875" style="51" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="50" customWidth="1"/>
+    <col min="11" max="11" width="9.875" style="48" customWidth="1"/>
     <col min="12" max="12" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="48" customFormat="1">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:12" s="45" customFormat="1">
+      <c r="A1" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="53"/>
-      <c r="K1" s="51"/>
-    </row>
-    <row r="2" spans="1:12" s="48" customFormat="1">
+      <c r="J1" s="50"/>
+      <c r="K1" s="48"/>
+    </row>
+    <row r="2" spans="1:12" s="45" customFormat="1">
       <c r="E2" s="149" t="s">
         <v>71</v>
       </c>
       <c r="F2" s="149"/>
       <c r="G2" s="149"/>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="50">
+      <c r="I2" s="47">
         <v>0.45</v>
       </c>
-      <c r="J2" s="56"/>
-      <c r="K2" s="51"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:12" ht="24">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3" s="54" t="s">
+      <c r="H3" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="J3" s="55" t="s">
+      <c r="J3" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="K3" s="51" t="s">
+      <c r="K3" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="59" customFormat="1">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:12" s="56" customFormat="1">
+      <c r="A4" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="135">
+      <c r="B4" s="10"/>
+      <c r="C4" s="129">
         <f>SMALL(C7:C100,COUNTIF($C$7:$C$100,0)+1)</f>
         <v>81000</v>
       </c>
-      <c r="D4" s="60">
+      <c r="D4" s="57">
         <f>MAX(D7:D121)</f>
         <v>83964</v>
       </c>
-      <c r="E4" s="136">
+      <c r="E4" s="130">
         <f>AVERAGEIF(E7:E1000,"&lt;&gt;0")</f>
         <v>76</v>
       </c>
-      <c r="F4" s="136">
+      <c r="F4" s="130">
         <f>AVERAGEIF(F7:F1000,"&lt;&gt;0")</f>
         <v>329.33333333333331</v>
       </c>
-      <c r="G4" s="91">
+      <c r="G4" s="87">
         <f>SUM(E7:E2073)</f>
         <v>2964</v>
       </c>
-      <c r="H4" s="136">
+      <c r="H4" s="130">
         <f>AVERAGEIF(H7:H1000,"&lt;&gt;0")</f>
         <v>148.19999999999999</v>
       </c>
-      <c r="I4" s="61">
+      <c r="I4" s="58">
         <f>MAX(I7:I329)</f>
         <v>1333.8</v>
       </c>
-      <c r="J4" s="61">
+      <c r="J4" s="58">
         <f>SUM(J7:J229)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="5" spans="1:12" s="71" customFormat="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" spans="1:12" s="59" customFormat="1">
-      <c r="A6" s="11" t="s">
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" s="68" customFormat="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" s="56" customFormat="1">
+      <c r="A6" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="55"/>
-      <c r="L6" s="11"/>
+      <c r="B6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="52"/>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="142">
         <v>43692</v>
       </c>
-      <c r="B7" s="99" t="s">
+      <c r="B7" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98">
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93">
         <v>0</v>
       </c>
       <c r="F7" s="143">
@@ -5845,116 +5913,116 @@
         <f>H7</f>
         <v>102.60000000000001</v>
       </c>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="11"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="142"/>
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98">
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93">
         <v>0</v>
       </c>
       <c r="F8" s="143"/>
       <c r="G8" s="143"/>
       <c r="H8" s="144"/>
       <c r="I8" s="144"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="77"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="74"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="142"/>
-      <c r="B9" s="99" t="s">
+      <c r="B9" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="98">
+      <c r="C9" s="93">
         <v>81000</v>
       </c>
-      <c r="D9" s="98">
+      <c r="D9" s="93">
         <f>C9+E9</f>
         <v>81076</v>
       </c>
-      <c r="E9" s="98">
+      <c r="E9" s="93">
         <v>76</v>
       </c>
       <c r="F9" s="143"/>
       <c r="G9" s="143"/>
       <c r="H9" s="144"/>
       <c r="I9" s="144"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="77"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="74"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="142"/>
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="98">
+      <c r="C10" s="93">
         <f>D9</f>
         <v>81076</v>
       </c>
-      <c r="D10" s="98">
+      <c r="D10" s="93">
         <f t="shared" ref="D10:D31" si="0">C10+E10</f>
         <v>81152</v>
       </c>
-      <c r="E10" s="98">
+      <c r="E10" s="93">
         <v>76</v>
       </c>
       <c r="F10" s="143"/>
       <c r="G10" s="143"/>
       <c r="H10" s="144"/>
       <c r="I10" s="144"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="77"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="74"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="142"/>
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="98">
+      <c r="C11" s="93">
         <f t="shared" ref="C11:C31" si="1">D10</f>
         <v>81152</v>
       </c>
-      <c r="D11" s="98">
+      <c r="D11" s="93">
         <f t="shared" si="0"/>
         <v>81228</v>
       </c>
-      <c r="E11" s="98">
+      <c r="E11" s="93">
         <v>76</v>
       </c>
       <c r="F11" s="143"/>
       <c r="G11" s="143"/>
       <c r="H11" s="144"/>
       <c r="I11" s="144"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="77"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="74"/>
     </row>
     <row r="12" spans="1:12" ht="10.5" customHeight="1">
       <c r="A12" s="145">
         <f>A7+7</f>
         <v>43699</v>
       </c>
-      <c r="B12" s="101" t="s">
+      <c r="B12" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="102">
+      <c r="C12" s="97">
         <f t="shared" si="1"/>
         <v>81228</v>
       </c>
-      <c r="D12" s="102">
+      <c r="D12" s="97">
         <f t="shared" si="0"/>
         <v>81304</v>
       </c>
-      <c r="E12" s="102">
+      <c r="E12" s="97">
         <v>76</v>
       </c>
       <c r="F12" s="146">
@@ -5973,117 +6041,117 @@
         <f>I7+H12</f>
         <v>273.60000000000002</v>
       </c>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="77"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="74"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="145"/>
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="102">
+      <c r="C13" s="97">
         <f t="shared" si="1"/>
         <v>81304</v>
       </c>
-      <c r="D13" s="102">
+      <c r="D13" s="97">
         <f t="shared" si="0"/>
         <v>81380</v>
       </c>
-      <c r="E13" s="102">
+      <c r="E13" s="97">
         <v>76</v>
       </c>
       <c r="F13" s="146"/>
       <c r="G13" s="146"/>
       <c r="H13" s="147"/>
       <c r="I13" s="147"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="77"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="74"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="145"/>
-      <c r="B14" s="101" t="s">
+      <c r="B14" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="102">
+      <c r="C14" s="97">
         <f t="shared" si="1"/>
         <v>81380</v>
       </c>
-      <c r="D14" s="102">
+      <c r="D14" s="97">
         <f t="shared" si="0"/>
         <v>81456</v>
       </c>
-      <c r="E14" s="102">
+      <c r="E14" s="97">
         <v>76</v>
       </c>
       <c r="F14" s="146"/>
       <c r="G14" s="146"/>
       <c r="H14" s="147"/>
       <c r="I14" s="147"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="77"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="74"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="145"/>
-      <c r="B15" s="101" t="s">
+      <c r="B15" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="102">
+      <c r="C15" s="97">
         <f t="shared" si="1"/>
         <v>81456</v>
       </c>
-      <c r="D15" s="102">
+      <c r="D15" s="97">
         <f t="shared" si="0"/>
         <v>81532</v>
       </c>
-      <c r="E15" s="102">
+      <c r="E15" s="97">
         <v>76</v>
       </c>
       <c r="F15" s="146"/>
       <c r="G15" s="146"/>
       <c r="H15" s="147"/>
       <c r="I15" s="147"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="77"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="74"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="145"/>
-      <c r="B16" s="101" t="s">
+      <c r="B16" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="102">
+      <c r="C16" s="97">
         <f t="shared" si="1"/>
         <v>81532</v>
       </c>
-      <c r="D16" s="102">
+      <c r="D16" s="97">
         <f t="shared" si="0"/>
         <v>81608</v>
       </c>
-      <c r="E16" s="102">
+      <c r="E16" s="97">
         <v>76</v>
       </c>
       <c r="F16" s="146"/>
       <c r="G16" s="146"/>
       <c r="H16" s="147"/>
       <c r="I16" s="147"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="103"/>
-      <c r="L16" s="11"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="10"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="142">
         <f>A12+7</f>
         <v>43706</v>
       </c>
-      <c r="B17" s="99" t="s">
+      <c r="B17" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
       <c r="F17" s="143">
         <f>SUM(E17:E21)</f>
         <v>304</v>
@@ -6100,123 +6168,123 @@
         <f>I12+H17</f>
         <v>410.40000000000003</v>
       </c>
-      <c r="J17" s="100"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="77"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="74"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="142"/>
-      <c r="B18" s="99" t="s">
+      <c r="B18" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="98">
+      <c r="C18" s="93">
         <f>D16</f>
         <v>81608</v>
       </c>
-      <c r="D18" s="98">
+      <c r="D18" s="93">
         <f t="shared" si="0"/>
         <v>81684</v>
       </c>
-      <c r="E18" s="98">
+      <c r="E18" s="93">
         <v>76</v>
       </c>
       <c r="F18" s="143"/>
       <c r="G18" s="143"/>
       <c r="H18" s="144"/>
       <c r="I18" s="144"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="77"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="74"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="142"/>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="98">
+      <c r="C19" s="93">
         <f t="shared" si="1"/>
         <v>81684</v>
       </c>
-      <c r="D19" s="98">
+      <c r="D19" s="93">
         <f t="shared" si="0"/>
         <v>81760</v>
       </c>
-      <c r="E19" s="98">
+      <c r="E19" s="93">
         <v>76</v>
       </c>
       <c r="F19" s="143"/>
       <c r="G19" s="143"/>
       <c r="H19" s="144"/>
       <c r="I19" s="144"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="77"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="74"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="142"/>
-      <c r="B20" s="99" t="s">
+      <c r="B20" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="98">
+      <c r="C20" s="93">
         <f t="shared" si="1"/>
         <v>81760</v>
       </c>
-      <c r="D20" s="98">
+      <c r="D20" s="93">
         <f t="shared" si="0"/>
         <v>81836</v>
       </c>
-      <c r="E20" s="98">
+      <c r="E20" s="93">
         <v>76</v>
       </c>
       <c r="F20" s="143"/>
       <c r="G20" s="143"/>
       <c r="H20" s="144"/>
       <c r="I20" s="144"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="77"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="74"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="142"/>
-      <c r="B21" s="99" t="s">
+      <c r="B21" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="98">
+      <c r="C21" s="93">
         <f t="shared" si="1"/>
         <v>81836</v>
       </c>
-      <c r="D21" s="98">
+      <c r="D21" s="93">
         <f t="shared" si="0"/>
         <v>81912</v>
       </c>
-      <c r="E21" s="98">
+      <c r="E21" s="93">
         <v>76</v>
       </c>
       <c r="F21" s="143"/>
       <c r="G21" s="143"/>
       <c r="H21" s="144"/>
       <c r="I21" s="144"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="77"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="74"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="145">
         <f>A17+7</f>
         <v>43713</v>
       </c>
-      <c r="B22" s="101" t="s">
+      <c r="B22" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="102">
+      <c r="C22" s="97">
         <f t="shared" si="1"/>
         <v>81912</v>
       </c>
-      <c r="D22" s="102">
+      <c r="D22" s="97">
         <f t="shared" si="0"/>
         <v>81988</v>
       </c>
-      <c r="E22" s="102">
+      <c r="E22" s="97">
         <v>76</v>
       </c>
       <c r="F22" s="146">
@@ -6235,123 +6303,123 @@
         <f>I17+H22</f>
         <v>581.40000000000009</v>
       </c>
-      <c r="J22" s="103"/>
-      <c r="K22" s="103"/>
-      <c r="L22" s="11"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="98"/>
+      <c r="L22" s="10"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="145"/>
-      <c r="B23" s="101" t="s">
+      <c r="B23" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="102">
+      <c r="C23" s="97">
         <f t="shared" si="1"/>
         <v>81988</v>
       </c>
-      <c r="D23" s="102">
+      <c r="D23" s="97">
         <f t="shared" si="0"/>
         <v>82064</v>
       </c>
-      <c r="E23" s="102">
+      <c r="E23" s="97">
         <v>76</v>
       </c>
       <c r="F23" s="146"/>
       <c r="G23" s="146"/>
       <c r="H23" s="147"/>
       <c r="I23" s="147"/>
-      <c r="J23" s="103"/>
-      <c r="K23" s="103"/>
-      <c r="L23" s="77"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="98"/>
+      <c r="L23" s="74"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="145"/>
-      <c r="B24" s="101" t="s">
+      <c r="B24" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="102">
+      <c r="C24" s="97">
         <f t="shared" si="1"/>
         <v>82064</v>
       </c>
-      <c r="D24" s="102">
+      <c r="D24" s="97">
         <f t="shared" si="0"/>
         <v>82140</v>
       </c>
-      <c r="E24" s="102">
+      <c r="E24" s="97">
         <v>76</v>
       </c>
       <c r="F24" s="146"/>
       <c r="G24" s="146"/>
       <c r="H24" s="147"/>
       <c r="I24" s="147"/>
-      <c r="J24" s="103"/>
-      <c r="K24" s="103"/>
-      <c r="L24" s="77"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="74"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="145"/>
-      <c r="B25" s="101" t="s">
+      <c r="B25" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="102">
+      <c r="C25" s="97">
         <f t="shared" si="1"/>
         <v>82140</v>
       </c>
-      <c r="D25" s="102">
+      <c r="D25" s="97">
         <f t="shared" si="0"/>
         <v>82216</v>
       </c>
-      <c r="E25" s="102">
+      <c r="E25" s="97">
         <v>76</v>
       </c>
       <c r="F25" s="146"/>
       <c r="G25" s="146"/>
       <c r="H25" s="147"/>
       <c r="I25" s="147"/>
-      <c r="J25" s="103"/>
-      <c r="K25" s="103"/>
-      <c r="L25" s="77"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="74"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="145"/>
-      <c r="B26" s="101" t="s">
+      <c r="B26" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="102">
+      <c r="C26" s="97">
         <f t="shared" si="1"/>
         <v>82216</v>
       </c>
-      <c r="D26" s="102">
+      <c r="D26" s="97">
         <f t="shared" si="0"/>
         <v>82292</v>
       </c>
-      <c r="E26" s="102">
+      <c r="E26" s="97">
         <v>76</v>
       </c>
       <c r="F26" s="146"/>
       <c r="G26" s="146"/>
       <c r="H26" s="147"/>
       <c r="I26" s="147"/>
-      <c r="J26" s="103"/>
-      <c r="K26" s="103"/>
-      <c r="L26" s="77"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="74"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="142">
         <f>A22+7</f>
         <v>43720</v>
       </c>
-      <c r="B27" s="99" t="s">
+      <c r="B27" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="98">
+      <c r="C27" s="93">
         <f t="shared" si="1"/>
         <v>82292</v>
       </c>
-      <c r="D27" s="98">
+      <c r="D27" s="93">
         <f t="shared" si="0"/>
         <v>82368</v>
       </c>
-      <c r="E27" s="98">
+      <c r="E27" s="93">
         <v>76</v>
       </c>
       <c r="F27" s="143">
@@ -6370,117 +6438,117 @@
         <f>I22+H27</f>
         <v>752.40000000000009</v>
       </c>
-      <c r="J27" s="100"/>
-      <c r="K27" s="100"/>
-      <c r="L27" s="77"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="74"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="142"/>
-      <c r="B28" s="99" t="s">
+      <c r="B28" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="98">
+      <c r="C28" s="93">
         <f t="shared" si="1"/>
         <v>82368</v>
       </c>
-      <c r="D28" s="98">
+      <c r="D28" s="93">
         <f t="shared" si="0"/>
         <v>82444</v>
       </c>
-      <c r="E28" s="98">
+      <c r="E28" s="93">
         <v>76</v>
       </c>
       <c r="F28" s="143"/>
       <c r="G28" s="143"/>
       <c r="H28" s="144"/>
       <c r="I28" s="144"/>
-      <c r="J28" s="100"/>
-      <c r="K28" s="100"/>
-      <c r="L28" s="77"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="74"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="142"/>
-      <c r="B29" s="99" t="s">
+      <c r="B29" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="98">
+      <c r="C29" s="93">
         <f t="shared" si="1"/>
         <v>82444</v>
       </c>
-      <c r="D29" s="98">
+      <c r="D29" s="93">
         <f t="shared" si="0"/>
         <v>82520</v>
       </c>
-      <c r="E29" s="98">
+      <c r="E29" s="93">
         <v>76</v>
       </c>
       <c r="F29" s="143"/>
       <c r="G29" s="143"/>
       <c r="H29" s="144"/>
       <c r="I29" s="144"/>
-      <c r="J29" s="100"/>
-      <c r="K29" s="100"/>
-      <c r="L29" s="77"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="74"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="142"/>
-      <c r="B30" s="99" t="s">
+      <c r="B30" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="98">
+      <c r="C30" s="93">
         <f t="shared" si="1"/>
         <v>82520</v>
       </c>
-      <c r="D30" s="98">
+      <c r="D30" s="93">
         <f t="shared" si="0"/>
         <v>82596</v>
       </c>
-      <c r="E30" s="98">
+      <c r="E30" s="93">
         <v>76</v>
       </c>
       <c r="F30" s="143"/>
       <c r="G30" s="143"/>
       <c r="H30" s="144"/>
       <c r="I30" s="144"/>
-      <c r="J30" s="100"/>
-      <c r="K30" s="100"/>
-      <c r="L30" s="77"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="74"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="142"/>
-      <c r="B31" s="99" t="s">
+      <c r="B31" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="98">
+      <c r="C31" s="93">
         <f t="shared" si="1"/>
         <v>82596</v>
       </c>
-      <c r="D31" s="98">
+      <c r="D31" s="93">
         <f t="shared" si="0"/>
         <v>82672</v>
       </c>
-      <c r="E31" s="98">
+      <c r="E31" s="93">
         <v>76</v>
       </c>
       <c r="F31" s="143"/>
       <c r="G31" s="143"/>
       <c r="H31" s="144"/>
       <c r="I31" s="144"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="100"/>
-      <c r="L31" s="77"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="74"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="145">
         <f>A27+7</f>
         <v>43727</v>
       </c>
-      <c r="B32" s="101" t="s">
+      <c r="B32" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="102"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="102">
+      <c r="C32" s="97"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="97">
         <v>0</v>
       </c>
       <c r="F32" s="148">
@@ -6499,119 +6567,119 @@
         <f>I27+H32</f>
         <v>889.2</v>
       </c>
-      <c r="J32" s="103"/>
-      <c r="K32" s="103"/>
-      <c r="L32" s="123"/>
+      <c r="J32" s="98"/>
+      <c r="K32" s="98"/>
+      <c r="L32" s="117"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="145"/>
-      <c r="B33" s="101" t="s">
+      <c r="B33" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="102">
+      <c r="C33" s="97">
         <f>D31</f>
         <v>82672</v>
       </c>
-      <c r="D33" s="102">
+      <c r="D33" s="97">
         <f t="shared" ref="D33:D50" si="2">C33+E33</f>
         <v>82748</v>
       </c>
-      <c r="E33" s="102">
+      <c r="E33" s="97">
         <v>76</v>
       </c>
       <c r="F33" s="148"/>
       <c r="G33" s="148"/>
       <c r="H33" s="147"/>
       <c r="I33" s="147"/>
-      <c r="J33" s="103"/>
-      <c r="K33" s="103"/>
+      <c r="J33" s="98"/>
+      <c r="K33" s="98"/>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="145"/>
-      <c r="B34" s="101" t="s">
+      <c r="B34" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="102">
+      <c r="C34" s="97">
         <f t="shared" ref="C34:C50" si="3">D33</f>
         <v>82748</v>
       </c>
-      <c r="D34" s="102">
+      <c r="D34" s="97">
         <f t="shared" si="2"/>
         <v>82824</v>
       </c>
-      <c r="E34" s="102">
+      <c r="E34" s="97">
         <v>76</v>
       </c>
       <c r="F34" s="148"/>
       <c r="G34" s="148"/>
       <c r="H34" s="147"/>
       <c r="I34" s="147"/>
-      <c r="J34" s="103"/>
-      <c r="K34" s="103"/>
+      <c r="J34" s="98"/>
+      <c r="K34" s="98"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="145"/>
-      <c r="B35" s="101" t="s">
+      <c r="B35" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="102">
+      <c r="C35" s="97">
         <f t="shared" si="3"/>
         <v>82824</v>
       </c>
-      <c r="D35" s="102">
+      <c r="D35" s="97">
         <f t="shared" si="2"/>
         <v>82900</v>
       </c>
-      <c r="E35" s="102">
+      <c r="E35" s="97">
         <v>76</v>
       </c>
       <c r="F35" s="148"/>
       <c r="G35" s="148"/>
       <c r="H35" s="147"/>
       <c r="I35" s="147"/>
-      <c r="J35" s="103"/>
-      <c r="K35" s="103"/>
+      <c r="J35" s="98"/>
+      <c r="K35" s="98"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="145"/>
-      <c r="B36" s="101" t="s">
+      <c r="B36" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="102">
+      <c r="C36" s="97">
         <f t="shared" si="3"/>
         <v>82900</v>
       </c>
-      <c r="D36" s="102">
+      <c r="D36" s="97">
         <f t="shared" si="2"/>
         <v>82976</v>
       </c>
-      <c r="E36" s="102">
+      <c r="E36" s="97">
         <v>76</v>
       </c>
       <c r="F36" s="148"/>
       <c r="G36" s="148"/>
       <c r="H36" s="147"/>
       <c r="I36" s="147"/>
-      <c r="J36" s="103"/>
-      <c r="K36" s="103"/>
+      <c r="J36" s="98"/>
+      <c r="K36" s="98"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="142">
         <f>A32+7</f>
         <v>43734</v>
       </c>
-      <c r="B37" s="99" t="s">
+      <c r="B37" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="98">
+      <c r="C37" s="93">
         <f t="shared" si="3"/>
         <v>82976</v>
       </c>
-      <c r="D37" s="98">
+      <c r="D37" s="93">
         <f t="shared" si="2"/>
         <v>83052</v>
       </c>
-      <c r="E37" s="98">
+      <c r="E37" s="93">
         <v>76</v>
       </c>
       <c r="F37" s="143">
@@ -6630,118 +6698,118 @@
         <f>I32+H37</f>
         <v>1060.2</v>
       </c>
-      <c r="J37" s="100"/>
-      <c r="K37" s="100"/>
+      <c r="J37" s="95"/>
+      <c r="K37" s="95"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="142"/>
-      <c r="B38" s="99" t="s">
+      <c r="B38" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="98">
+      <c r="C38" s="93">
         <f t="shared" si="3"/>
         <v>83052</v>
       </c>
-      <c r="D38" s="98">
+      <c r="D38" s="93">
         <f t="shared" si="2"/>
         <v>83128</v>
       </c>
-      <c r="E38" s="98">
+      <c r="E38" s="93">
         <v>76</v>
       </c>
       <c r="F38" s="143"/>
       <c r="G38" s="143"/>
       <c r="H38" s="144"/>
       <c r="I38" s="144"/>
-      <c r="J38" s="100"/>
-      <c r="K38" s="100"/>
+      <c r="J38" s="95"/>
+      <c r="K38" s="95"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="142"/>
-      <c r="B39" s="99" t="s">
+      <c r="B39" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="98">
+      <c r="C39" s="93">
         <f t="shared" si="3"/>
         <v>83128</v>
       </c>
-      <c r="D39" s="98">
+      <c r="D39" s="93">
         <f t="shared" si="2"/>
         <v>83204</v>
       </c>
-      <c r="E39" s="98">
+      <c r="E39" s="93">
         <v>76</v>
       </c>
       <c r="F39" s="143"/>
       <c r="G39" s="143"/>
       <c r="H39" s="144"/>
       <c r="I39" s="144"/>
-      <c r="J39" s="100"/>
-      <c r="K39" s="100"/>
+      <c r="J39" s="95"/>
+      <c r="K39" s="95"/>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="142"/>
-      <c r="B40" s="99" t="s">
+      <c r="B40" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="98">
+      <c r="C40" s="93">
         <f t="shared" si="3"/>
         <v>83204</v>
       </c>
-      <c r="D40" s="98">
+      <c r="D40" s="93">
         <f t="shared" si="2"/>
         <v>83280</v>
       </c>
-      <c r="E40" s="98">
+      <c r="E40" s="93">
         <v>76</v>
       </c>
       <c r="F40" s="143"/>
       <c r="G40" s="143"/>
       <c r="H40" s="144"/>
       <c r="I40" s="144"/>
-      <c r="J40" s="100"/>
-      <c r="K40" s="100"/>
+      <c r="J40" s="95"/>
+      <c r="K40" s="95"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="142"/>
-      <c r="B41" s="99" t="s">
+      <c r="B41" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="98">
+      <c r="C41" s="93">
         <f t="shared" si="3"/>
         <v>83280</v>
       </c>
-      <c r="D41" s="98">
+      <c r="D41" s="93">
         <f t="shared" si="2"/>
         <v>83356</v>
       </c>
-      <c r="E41" s="98">
+      <c r="E41" s="93">
         <v>76</v>
       </c>
       <c r="F41" s="143"/>
       <c r="G41" s="143"/>
       <c r="H41" s="144"/>
       <c r="I41" s="144"/>
-      <c r="J41" s="100"/>
-      <c r="K41" s="100"/>
+      <c r="J41" s="95"/>
+      <c r="K41" s="95"/>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="145">
         <f>A37+7</f>
         <v>43741</v>
       </c>
-      <c r="B42" s="101" t="s">
+      <c r="B42" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="102">
+      <c r="C42" s="97">
         <f t="shared" si="3"/>
         <v>83356</v>
       </c>
-      <c r="D42" s="102">
+      <c r="D42" s="97">
         <f t="shared" si="2"/>
         <v>83432</v>
       </c>
-      <c r="E42" s="102">
+      <c r="E42" s="97">
         <v>76</v>
       </c>
       <c r="F42" s="148">
@@ -6760,107 +6828,107 @@
         <f>I37+H42</f>
         <v>1197</v>
       </c>
-      <c r="J42" s="103"/>
-      <c r="K42" s="103"/>
+      <c r="J42" s="98"/>
+      <c r="K42" s="98"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="145"/>
-      <c r="B43" s="101" t="s">
+      <c r="B43" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="102">
+      <c r="C43" s="97">
         <f t="shared" si="3"/>
         <v>83432</v>
       </c>
-      <c r="D43" s="102">
+      <c r="D43" s="97">
         <f t="shared" si="2"/>
         <v>83508</v>
       </c>
-      <c r="E43" s="102">
+      <c r="E43" s="97">
         <v>76</v>
       </c>
       <c r="F43" s="148"/>
       <c r="G43" s="148"/>
       <c r="H43" s="147"/>
       <c r="I43" s="147"/>
-      <c r="J43" s="103"/>
-      <c r="K43" s="103"/>
+      <c r="J43" s="98"/>
+      <c r="K43" s="98"/>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="145"/>
-      <c r="B44" s="101" t="s">
+      <c r="B44" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="102">
+      <c r="C44" s="97">
         <f t="shared" si="3"/>
         <v>83508</v>
       </c>
-      <c r="D44" s="102">
+      <c r="D44" s="97">
         <f t="shared" si="2"/>
         <v>83584</v>
       </c>
-      <c r="E44" s="102">
+      <c r="E44" s="97">
         <v>76</v>
       </c>
       <c r="F44" s="148"/>
       <c r="G44" s="148"/>
       <c r="H44" s="147"/>
       <c r="I44" s="147"/>
-      <c r="J44" s="103"/>
-      <c r="K44" s="103"/>
+      <c r="J44" s="98"/>
+      <c r="K44" s="98"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="145"/>
-      <c r="B45" s="101" t="s">
+      <c r="B45" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="102">
+      <c r="C45" s="97">
         <f t="shared" si="3"/>
         <v>83584</v>
       </c>
-      <c r="D45" s="102">
+      <c r="D45" s="97">
         <f t="shared" si="2"/>
         <v>83660</v>
       </c>
-      <c r="E45" s="102">
+      <c r="E45" s="97">
         <v>76</v>
       </c>
       <c r="F45" s="148"/>
       <c r="G45" s="148"/>
       <c r="H45" s="147"/>
       <c r="I45" s="147"/>
-      <c r="J45" s="103"/>
-      <c r="K45" s="103"/>
+      <c r="J45" s="98"/>
+      <c r="K45" s="98"/>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="145"/>
-      <c r="B46" s="101" t="s">
+      <c r="B46" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="C46" s="102"/>
-      <c r="D46" s="102"/>
-      <c r="E46" s="102">
+      <c r="C46" s="97"/>
+      <c r="D46" s="97"/>
+      <c r="E46" s="97">
         <v>0</v>
       </c>
       <c r="F46" s="148"/>
       <c r="G46" s="148"/>
       <c r="H46" s="147"/>
       <c r="I46" s="147"/>
-      <c r="J46" s="103"/>
-      <c r="K46" s="103"/>
-      <c r="L46" s="123"/>
+      <c r="J46" s="98"/>
+      <c r="K46" s="98"/>
+      <c r="L46" s="117"/>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="142">
         <f>A42+7</f>
         <v>43748</v>
       </c>
-      <c r="B47" s="99" t="s">
+      <c r="B47" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="98"/>
-      <c r="D47" s="98"/>
-      <c r="E47" s="98">
+      <c r="C47" s="93"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="93">
         <v>0</v>
       </c>
       <c r="F47" s="143">
@@ -6879,108 +6947,108 @@
         <f>I42+H47</f>
         <v>1333.8</v>
       </c>
-      <c r="J47" s="100"/>
-      <c r="K47" s="100"/>
-      <c r="L47" s="123"/>
+      <c r="J47" s="95"/>
+      <c r="K47" s="95"/>
+      <c r="L47" s="117"/>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="142"/>
-      <c r="B48" s="99" t="s">
+      <c r="B48" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="98">
+      <c r="C48" s="93">
         <f>D45</f>
         <v>83660</v>
       </c>
-      <c r="D48" s="98">
+      <c r="D48" s="93">
         <f t="shared" si="2"/>
         <v>83736</v>
       </c>
-      <c r="E48" s="98">
+      <c r="E48" s="93">
         <v>76</v>
       </c>
       <c r="F48" s="143"/>
       <c r="G48" s="143"/>
       <c r="H48" s="144"/>
       <c r="I48" s="144"/>
-      <c r="J48" s="100"/>
-      <c r="K48" s="100"/>
+      <c r="J48" s="95"/>
+      <c r="K48" s="95"/>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="142"/>
-      <c r="B49" s="99" t="s">
+      <c r="B49" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="C49" s="98">
+      <c r="C49" s="93">
         <f t="shared" si="3"/>
         <v>83736</v>
       </c>
-      <c r="D49" s="98">
+      <c r="D49" s="93">
         <f t="shared" si="2"/>
         <v>83812</v>
       </c>
-      <c r="E49" s="98">
+      <c r="E49" s="93">
         <v>76</v>
       </c>
       <c r="F49" s="143"/>
       <c r="G49" s="143"/>
       <c r="H49" s="144"/>
       <c r="I49" s="144"/>
-      <c r="J49" s="100"/>
-      <c r="K49" s="100"/>
+      <c r="J49" s="95"/>
+      <c r="K49" s="95"/>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="142"/>
-      <c r="B50" s="99" t="s">
+      <c r="B50" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="C50" s="98">
+      <c r="C50" s="93">
         <f t="shared" si="3"/>
         <v>83812</v>
       </c>
-      <c r="D50" s="98">
+      <c r="D50" s="93">
         <f t="shared" si="2"/>
         <v>83888</v>
       </c>
-      <c r="E50" s="98">
+      <c r="E50" s="93">
         <v>76</v>
       </c>
       <c r="F50" s="143"/>
       <c r="G50" s="143"/>
       <c r="H50" s="144"/>
       <c r="I50" s="144"/>
-      <c r="J50" s="100"/>
-      <c r="K50" s="100"/>
+      <c r="J50" s="95"/>
+      <c r="K50" s="95"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="142"/>
-      <c r="B51" s="99" t="s">
+      <c r="B51" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="C51" s="98">
+      <c r="C51" s="93">
         <f>D50</f>
         <v>83888</v>
       </c>
-      <c r="D51" s="98">
+      <c r="D51" s="93">
         <f>C51+E51</f>
         <v>83964</v>
       </c>
-      <c r="E51" s="98">
+      <c r="E51" s="93">
         <v>76</v>
       </c>
       <c r="F51" s="143"/>
       <c r="G51" s="143"/>
       <c r="H51" s="144"/>
       <c r="I51" s="144"/>
-      <c r="J51" s="100"/>
-      <c r="K51" s="100"/>
+      <c r="J51" s="95"/>
+      <c r="K51" s="95"/>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="145"/>
-      <c r="B52" s="101"/>
-      <c r="C52" s="102"/>
-      <c r="D52" s="102"/>
-      <c r="E52" s="102"/>
+      <c r="B52" s="96"/>
+      <c r="C52" s="97"/>
+      <c r="D52" s="97"/>
+      <c r="E52" s="97"/>
       <c r="F52" s="148">
         <f>SUM(E52:E56)</f>
         <v>0</v>
@@ -6997,67 +7065,67 @@
         <f>I47+H52</f>
         <v>1333.8</v>
       </c>
-      <c r="J52" s="103"/>
-      <c r="K52" s="103"/>
+      <c r="J52" s="98"/>
+      <c r="K52" s="98"/>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="145"/>
-      <c r="B53" s="101"/>
-      <c r="C53" s="102"/>
-      <c r="D53" s="102"/>
-      <c r="E53" s="102"/>
+      <c r="B53" s="96"/>
+      <c r="C53" s="97"/>
+      <c r="D53" s="97"/>
+      <c r="E53" s="97"/>
       <c r="F53" s="148"/>
       <c r="G53" s="148"/>
       <c r="H53" s="147"/>
       <c r="I53" s="147"/>
-      <c r="J53" s="103"/>
-      <c r="K53" s="103"/>
+      <c r="J53" s="98"/>
+      <c r="K53" s="98"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="145"/>
-      <c r="B54" s="101"/>
-      <c r="C54" s="102"/>
-      <c r="D54" s="102"/>
-      <c r="E54" s="102"/>
+      <c r="B54" s="96"/>
+      <c r="C54" s="97"/>
+      <c r="D54" s="97"/>
+      <c r="E54" s="97"/>
       <c r="F54" s="148"/>
       <c r="G54" s="148"/>
       <c r="H54" s="147"/>
       <c r="I54" s="147"/>
-      <c r="J54" s="103"/>
-      <c r="K54" s="103"/>
+      <c r="J54" s="98"/>
+      <c r="K54" s="98"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="145"/>
-      <c r="B55" s="101"/>
-      <c r="C55" s="102"/>
-      <c r="D55" s="102"/>
-      <c r="E55" s="102"/>
+      <c r="B55" s="96"/>
+      <c r="C55" s="97"/>
+      <c r="D55" s="97"/>
+      <c r="E55" s="97"/>
       <c r="F55" s="148"/>
       <c r="G55" s="148"/>
       <c r="H55" s="147"/>
       <c r="I55" s="147"/>
-      <c r="J55" s="103"/>
-      <c r="K55" s="103"/>
+      <c r="J55" s="98"/>
+      <c r="K55" s="98"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="145"/>
-      <c r="B56" s="101"/>
-      <c r="C56" s="102"/>
-      <c r="D56" s="102"/>
-      <c r="E56" s="102"/>
+      <c r="B56" s="96"/>
+      <c r="C56" s="97"/>
+      <c r="D56" s="97"/>
+      <c r="E56" s="97"/>
       <c r="F56" s="148"/>
       <c r="G56" s="148"/>
       <c r="H56" s="147"/>
       <c r="I56" s="147"/>
-      <c r="J56" s="103"/>
-      <c r="K56" s="103"/>
+      <c r="J56" s="98"/>
+      <c r="K56" s="98"/>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="142"/>
-      <c r="B57" s="99"/>
-      <c r="C57" s="98"/>
-      <c r="D57" s="98"/>
-      <c r="E57" s="98"/>
+      <c r="B57" s="94"/>
+      <c r="C57" s="93"/>
+      <c r="D57" s="93"/>
+      <c r="E57" s="93"/>
       <c r="F57" s="143">
         <f>SUM(E57:E61)</f>
         <v>0</v>
@@ -7074,67 +7142,67 @@
         <f>I52+H57</f>
         <v>1333.8</v>
       </c>
-      <c r="J57" s="100"/>
-      <c r="K57" s="100"/>
+      <c r="J57" s="95"/>
+      <c r="K57" s="95"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="142"/>
-      <c r="B58" s="99"/>
-      <c r="C58" s="98"/>
-      <c r="D58" s="98"/>
-      <c r="E58" s="98"/>
+      <c r="B58" s="94"/>
+      <c r="C58" s="93"/>
+      <c r="D58" s="93"/>
+      <c r="E58" s="93"/>
       <c r="F58" s="143"/>
       <c r="G58" s="143"/>
       <c r="H58" s="144"/>
       <c r="I58" s="144"/>
-      <c r="J58" s="100"/>
-      <c r="K58" s="100"/>
+      <c r="J58" s="95"/>
+      <c r="K58" s="95"/>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="142"/>
-      <c r="B59" s="99"/>
-      <c r="C59" s="98"/>
-      <c r="D59" s="98"/>
-      <c r="E59" s="98"/>
+      <c r="B59" s="94"/>
+      <c r="C59" s="93"/>
+      <c r="D59" s="93"/>
+      <c r="E59" s="93"/>
       <c r="F59" s="143"/>
       <c r="G59" s="143"/>
       <c r="H59" s="144"/>
       <c r="I59" s="144"/>
-      <c r="J59" s="100"/>
-      <c r="K59" s="100"/>
+      <c r="J59" s="95"/>
+      <c r="K59" s="95"/>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="142"/>
-      <c r="B60" s="99"/>
-      <c r="C60" s="98"/>
-      <c r="D60" s="98"/>
-      <c r="E60" s="98"/>
+      <c r="B60" s="94"/>
+      <c r="C60" s="93"/>
+      <c r="D60" s="93"/>
+      <c r="E60" s="93"/>
       <c r="F60" s="143"/>
       <c r="G60" s="143"/>
       <c r="H60" s="144"/>
       <c r="I60" s="144"/>
-      <c r="J60" s="100"/>
-      <c r="K60" s="100"/>
+      <c r="J60" s="95"/>
+      <c r="K60" s="95"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="142"/>
-      <c r="B61" s="99"/>
-      <c r="C61" s="98"/>
-      <c r="D61" s="98"/>
-      <c r="E61" s="98"/>
+      <c r="B61" s="94"/>
+      <c r="C61" s="93"/>
+      <c r="D61" s="93"/>
+      <c r="E61" s="93"/>
       <c r="F61" s="143"/>
       <c r="G61" s="143"/>
       <c r="H61" s="144"/>
       <c r="I61" s="144"/>
-      <c r="J61" s="100"/>
-      <c r="K61" s="100"/>
+      <c r="J61" s="95"/>
+      <c r="K61" s="95"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="145"/>
-      <c r="B62" s="101"/>
-      <c r="C62" s="102"/>
-      <c r="D62" s="102"/>
-      <c r="E62" s="102"/>
+      <c r="B62" s="96"/>
+      <c r="C62" s="97"/>
+      <c r="D62" s="97"/>
+      <c r="E62" s="97"/>
       <c r="F62" s="148">
         <f>SUM(E62:E66)</f>
         <v>0</v>
@@ -7151,60 +7219,60 @@
         <f>I57+H62</f>
         <v>1333.8</v>
       </c>
-      <c r="J62" s="103"/>
-      <c r="K62" s="103"/>
+      <c r="J62" s="98"/>
+      <c r="K62" s="98"/>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="145"/>
-      <c r="B63" s="101"/>
-      <c r="C63" s="102"/>
-      <c r="D63" s="102"/>
-      <c r="E63" s="102"/>
+      <c r="B63" s="96"/>
+      <c r="C63" s="97"/>
+      <c r="D63" s="97"/>
+      <c r="E63" s="97"/>
       <c r="F63" s="148"/>
       <c r="G63" s="148"/>
       <c r="H63" s="147"/>
       <c r="I63" s="147"/>
-      <c r="J63" s="103"/>
-      <c r="K63" s="103"/>
+      <c r="J63" s="98"/>
+      <c r="K63" s="98"/>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="145"/>
-      <c r="B64" s="101"/>
-      <c r="C64" s="102"/>
-      <c r="D64" s="102"/>
-      <c r="E64" s="102"/>
+      <c r="B64" s="96"/>
+      <c r="C64" s="97"/>
+      <c r="D64" s="97"/>
+      <c r="E64" s="97"/>
       <c r="F64" s="148"/>
       <c r="G64" s="148"/>
       <c r="H64" s="147"/>
       <c r="I64" s="147"/>
-      <c r="J64" s="103"/>
-      <c r="K64" s="103"/>
+      <c r="J64" s="98"/>
+      <c r="K64" s="98"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="145"/>
-      <c r="B65" s="101"/>
-      <c r="C65" s="102"/>
-      <c r="D65" s="102"/>
-      <c r="E65" s="102"/>
+      <c r="B65" s="96"/>
+      <c r="C65" s="97"/>
+      <c r="D65" s="97"/>
+      <c r="E65" s="97"/>
       <c r="F65" s="148"/>
       <c r="G65" s="148"/>
       <c r="H65" s="147"/>
       <c r="I65" s="147"/>
-      <c r="J65" s="103"/>
-      <c r="K65" s="103"/>
+      <c r="J65" s="98"/>
+      <c r="K65" s="98"/>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="145"/>
-      <c r="B66" s="101"/>
-      <c r="C66" s="102"/>
-      <c r="D66" s="102"/>
-      <c r="E66" s="102"/>
+      <c r="B66" s="96"/>
+      <c r="C66" s="97"/>
+      <c r="D66" s="97"/>
+      <c r="E66" s="97"/>
       <c r="F66" s="148"/>
       <c r="G66" s="148"/>
       <c r="H66" s="147"/>
       <c r="I66" s="147"/>
-      <c r="J66" s="103"/>
-      <c r="K66" s="103"/>
+      <c r="J66" s="98"/>
+      <c r="K66" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="61">

--- a/Lava3.TestFiles/TestFiles/Test.xlsx
+++ b/Lava3.TestFiles/TestFiles/Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="585" windowWidth="15555" windowHeight="13155" tabRatio="554"/>
+    <workbookView xWindow="510" yWindow="585" windowWidth="15555" windowHeight="13155" tabRatio="554" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Annual Summary" sheetId="2" r:id="rId1"/>
@@ -2010,7 +2010,7 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="13"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="147">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="19" fillId="0" borderId="0" xfId="756" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="801" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2068,8 +2068,6 @@
     </xf>
     <xf numFmtId="164" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="802" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="801" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2214,13 +2212,12 @@
     </xf>
     <xf numFmtId="8" fontId="19" fillId="0" borderId="0" xfId="756" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3546,9 +3543,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+    <sheetView zoomScale="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12"/>
@@ -3571,10 +3568,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="12.75">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="83"/>
+      <c r="B1" s="81"/>
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
@@ -3630,11 +3627,11 @@
       <c r="E3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="140" t="s">
+      <c r="F3" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="23"/>
@@ -3653,17 +3650,17 @@
       <c r="X3" s="22"/>
       <c r="Y3" s="22"/>
     </row>
-    <row r="4" spans="1:25" s="108" customFormat="1" ht="12.75">
-      <c r="A4" s="63" t="s">
+    <row r="4" spans="1:25" s="106" customFormat="1" ht="12.75">
+      <c r="A4" s="61" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="60" t="s">
         <v>53</v>
       </c>
       <c r="E4" s="34" t="s">
@@ -3678,7 +3675,7 @@
       <c r="H4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="62" t="s">
+      <c r="I4" s="60" t="s">
         <v>12</v>
       </c>
       <c r="J4" s="25"/>
@@ -3697,16 +3694,16 @@
       <c r="W4" s="22"/>
       <c r="X4" s="22"/>
     </row>
-    <row r="5" spans="1:25" s="109" customFormat="1" ht="12.75">
-      <c r="A5" s="111"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
+    <row r="5" spans="1:25" s="107" customFormat="1" ht="12.75">
+      <c r="A5" s="109"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
-      <c r="I5" s="110"/>
+      <c r="I5" s="108"/>
       <c r="J5" s="25"/>
       <c r="K5" s="25"/>
       <c r="L5" s="25"/>
@@ -3723,36 +3720,36 @@
       <c r="W5" s="22"/>
       <c r="X5" s="22"/>
     </row>
-    <row r="6" spans="1:25" s="109" customFormat="1" ht="12.75">
-      <c r="A6" s="65"/>
-      <c r="B6" s="66" t="s">
+    <row r="6" spans="1:25" s="107" customFormat="1" ht="12.75">
+      <c r="A6" s="63"/>
+      <c r="B6" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="113">
+      <c r="C6" s="111">
         <f t="shared" ref="C6:I6" si="0">SUM(C5:C5)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="113">
+      <c r="D6" s="111">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="113">
+      <c r="E6" s="111">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="113">
+      <c r="F6" s="111">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="113">
+      <c r="G6" s="111">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H6" s="113">
+      <c r="H6" s="111">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="113">
+      <c r="I6" s="111">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3772,16 +3769,16 @@
       <c r="W6" s="22"/>
       <c r="X6" s="22"/>
     </row>
-    <row r="7" spans="1:25" s="109" customFormat="1" ht="12.75">
-      <c r="A7" s="105"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
+    <row r="7" spans="1:25" s="107" customFormat="1" ht="12.75">
+      <c r="A7" s="103"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
-      <c r="I7" s="110"/>
+      <c r="I7" s="108"/>
       <c r="J7" s="25"/>
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
@@ -3798,16 +3795,16 @@
       <c r="W7" s="22"/>
       <c r="X7" s="22"/>
     </row>
-    <row r="8" spans="1:25" s="59" customFormat="1" ht="12.75">
-      <c r="A8" s="60"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
+    <row r="8" spans="1:25" s="57" customFormat="1" ht="12.75">
+      <c r="A8" s="58"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
-      <c r="I8" s="55"/>
+      <c r="I8" s="53"/>
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
@@ -3824,7 +3821,7 @@
       <c r="W8" s="22"/>
       <c r="X8" s="22"/>
     </row>
-    <row r="9" spans="1:25" s="54" customFormat="1" ht="12.75">
+    <row r="9" spans="1:25" s="52" customFormat="1" ht="12.75">
       <c r="C9" s="21"/>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -3873,10 +3870,10 @@
       <c r="X10" s="22"/>
     </row>
     <row r="11" spans="1:25" ht="12.75">
-      <c r="A11" s="137" t="s">
+      <c r="A11" s="136" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="137"/>
+      <c r="B11" s="136"/>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
@@ -3901,9 +3898,6 @@
     </row>
     <row r="12" spans="1:25" ht="12.75" customHeight="1">
       <c r="C12" s="21"/>
-      <c r="D12" s="138" t="s">
-        <v>57</v>
-      </c>
       <c r="E12" s="32" t="s">
         <v>49</v>
       </c>
@@ -3923,23 +3917,25 @@
       <c r="V12" s="22"/>
     </row>
     <row r="13" spans="1:25" ht="25.5">
-      <c r="A13" s="136" t="s">
+      <c r="A13" s="134" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="136" t="s">
+      <c r="B13" s="134" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="139"/>
+      <c r="D13" s="135" t="s">
+        <v>57</v>
+      </c>
       <c r="E13" s="32" t="s">
         <v>59</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="131" t="s">
+      <c r="G13" s="129" t="s">
         <v>113</v>
       </c>
       <c r="H13" s="11"/>
@@ -3959,7 +3955,7 @@
       <c r="A14" s="5">
         <v>42491</v>
       </c>
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="78" t="s">
         <v>112</v>
       </c>
       <c r="C14" s="1">
@@ -3987,13 +3983,13 @@
       <c r="V14" s="22"/>
     </row>
     <row r="15" spans="1:25" ht="12.75">
-      <c r="A15" s="81">
+      <c r="A15" s="79">
         <v>42492</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="135">
+      <c r="C15" s="133">
         <v>20.45</v>
       </c>
       <c r="D15" s="21"/>
@@ -4018,7 +4014,7 @@
       <c r="V15" s="22"/>
     </row>
     <row r="16" spans="1:25" ht="12.75">
-      <c r="A16" s="84"/>
+      <c r="A16" s="82"/>
       <c r="B16" s="15"/>
       <c r="C16" s="1"/>
       <c r="D16" s="21"/>
@@ -4041,7 +4037,7 @@
       <c r="V16" s="22"/>
     </row>
     <row r="17" spans="1:28" ht="12.75">
-      <c r="A17" s="85"/>
+      <c r="A17" s="83"/>
       <c r="B17" s="15"/>
       <c r="C17" s="1"/>
       <c r="D17" s="21"/>
@@ -4158,8 +4154,8 @@
       <c r="X20" s="22"/>
     </row>
     <row r="21" spans="1:28" ht="12.75">
-      <c r="A21" s="137"/>
-      <c r="B21" s="137"/>
+      <c r="A21" s="136"/>
+      <c r="B21" s="136"/>
       <c r="C21" s="3"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -4182,10 +4178,10 @@
       <c r="Y21" s="22"/>
     </row>
     <row r="22" spans="1:28" ht="12.75" customHeight="1">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="76"/>
+      <c r="F22" s="74"/>
       <c r="I22" s="3"/>
       <c r="J22" s="21"/>
       <c r="K22" s="27"/>
@@ -4205,34 +4201,34 @@
     </row>
     <row r="23" spans="1:28" ht="12.75" customHeight="1">
       <c r="A23" s="4"/>
-      <c r="B23" s="90" t="s">
+      <c r="B23" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="91" t="s">
+      <c r="C23" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="91" t="s">
+      <c r="D23" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="91" t="s">
+      <c r="E23" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="91" t="s">
+      <c r="F23" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="G23" s="91" t="s">
+      <c r="G23" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="H23" s="91" t="s">
+      <c r="H23" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="I23" s="91" t="s">
+      <c r="I23" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="J23" s="91" t="s">
+      <c r="J23" s="89" t="s">
         <v>110</v>
       </c>
-      <c r="K23" s="132" t="s">
+      <c r="K23" s="130" t="s">
         <v>111</v>
       </c>
       <c r="N23" s="11"/>
@@ -4253,35 +4249,35 @@
     </row>
     <row r="24" spans="1:28" ht="12.75">
       <c r="A24" s="19"/>
-      <c r="B24" s="90" t="s">
+      <c r="B24" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="125" t="s">
+      <c r="C24" s="123" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="133">
+      <c r="D24" s="131">
         <v>42370</v>
       </c>
-      <c r="E24" s="133">
+      <c r="E24" s="131">
         <v>42401</v>
       </c>
-      <c r="F24" s="91">
+      <c r="F24" s="89">
         <f>30</f>
         <v>30</v>
       </c>
-      <c r="G24" s="91">
+      <c r="G24" s="89">
         <v>7.5</v>
       </c>
-      <c r="H24" s="91">
+      <c r="H24" s="89">
         <v>1</v>
       </c>
-      <c r="I24" s="91">
+      <c r="I24" s="89">
         <v>500</v>
       </c>
-      <c r="J24" s="91">
+      <c r="J24" s="89">
         <v>500</v>
       </c>
-      <c r="K24" s="132">
+      <c r="K24" s="130">
         <v>500</v>
       </c>
       <c r="L24" s="22"/>
@@ -4301,30 +4297,30 @@
       <c r="AA24" s="22"/>
       <c r="AB24" s="22"/>
     </row>
-    <row r="25" spans="1:28" s="108" customFormat="1" ht="15.75">
-      <c r="A25" s="106"/>
-      <c r="B25" s="134" t="s">
+    <row r="25" spans="1:28" s="106" customFormat="1" ht="15.75">
+      <c r="A25" s="104"/>
+      <c r="B25" s="132" t="s">
         <v>108</v>
       </c>
-      <c r="C25" s="125" t="s">
+      <c r="C25" s="123" t="s">
         <v>109</v>
       </c>
-      <c r="D25" s="133">
+      <c r="D25" s="131">
         <v>42401</v>
       </c>
-      <c r="E25" s="133"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="91">
+      <c r="E25" s="131"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89">
         <v>15</v>
       </c>
-      <c r="H25" s="91">
+      <c r="H25" s="89">
         <v>1</v>
       </c>
-      <c r="I25" s="91">
+      <c r="I25" s="89">
         <v>1000</v>
       </c>
-      <c r="J25" s="91"/>
-      <c r="K25" s="132"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="130"/>
       <c r="L25" s="22"/>
       <c r="M25" s="22"/>
       <c r="O25" s="22"/>
@@ -4342,13 +4338,13 @@
       <c r="AA25" s="22"/>
       <c r="AB25" s="22"/>
     </row>
-    <row r="26" spans="1:28" s="78" customFormat="1" ht="15.75">
-      <c r="A26" s="79"/>
-      <c r="B26" s="89"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="92"/>
+    <row r="26" spans="1:28" s="76" customFormat="1" ht="15.75">
+      <c r="A26" s="77"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="90"/>
       <c r="G26" s="4"/>
       <c r="H26" s="13"/>
       <c r="I26" s="12"/>
@@ -4383,7 +4379,7 @@
         <f>SUM(G24:G26)</f>
         <v>22.5</v>
       </c>
-      <c r="H27" s="75">
+      <c r="H27" s="73">
         <f>SUM(H24:H26)</f>
         <v>2</v>
       </c>
@@ -4413,7 +4409,7 @@
         <f>H27/275</f>
         <v>7.2727272727272727E-3</v>
       </c>
-      <c r="I28" s="77" t="s">
+      <c r="I28" s="75" t="s">
         <v>69</v>
       </c>
       <c r="J28" s="22"/>
@@ -4436,8 +4432,8 @@
       <c r="C31" s="9"/>
     </row>
     <row r="33" spans="1:8" ht="12.75">
-      <c r="B33" s="73"/>
-      <c r="C33" s="73"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
@@ -4841,9 +4837,8 @@
     <sortCondition ref="B5"/>
     <sortCondition ref="A5"/>
   </sortState>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D12:D13"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="F3:H3"/>
   </mergeCells>
@@ -4863,7 +4858,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -4872,7 +4867,7 @@
     <col min="2" max="2" width="53.125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="13" style="38" customWidth="1"/>
+    <col min="5" max="5" width="13" style="36" customWidth="1"/>
     <col min="6" max="6" width="12.125" customWidth="1"/>
     <col min="7" max="7" width="24.875" customWidth="1"/>
     <col min="8" max="8" width="42.75" customWidth="1"/>
@@ -4882,23 +4877,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="42"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="141" t="s">
+      <c r="A1" s="40"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="141"/>
+      <c r="G1" s="138"/>
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="40" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="20" t="s">
@@ -4916,141 +4911,141 @@
       <c r="G2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="41" t="s">
         <v>32</v>
       </c>
       <c r="I2" s="20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="122" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A3" s="123">
+    <row r="3" spans="1:9" s="120" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A3" s="121">
         <v>42466</v>
       </c>
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="122">
+      <c r="G3" s="120">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="122" customFormat="1" ht="15">
-      <c r="A4" s="123">
+    <row r="4" spans="1:9" s="120" customFormat="1" ht="15">
+      <c r="A4" s="121">
         <v>42468</v>
       </c>
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="122">
+      <c r="C4" s="120">
         <v>23.62</v>
       </c>
-      <c r="D4" s="122">
+      <c r="D4" s="120">
         <v>0</v>
       </c>
-      <c r="E4" s="122">
+      <c r="E4" s="120">
         <v>76.38</v>
       </c>
-      <c r="F4" s="122">
+      <c r="F4" s="120">
         <v>-23.62</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="122" customFormat="1" ht="15">
-      <c r="A5" s="123">
+    <row r="5" spans="1:9" s="120" customFormat="1" ht="15">
+      <c r="A5" s="121">
         <v>42471</v>
       </c>
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="120" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="122">
+      <c r="C5" s="120">
         <v>0.96</v>
       </c>
-      <c r="D5" s="122">
+      <c r="D5" s="120">
         <v>0</v>
       </c>
-      <c r="E5" s="122">
+      <c r="E5" s="120">
         <v>75.42</v>
       </c>
-      <c r="F5" s="122">
+      <c r="F5" s="120">
         <v>-24.580000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="121" customFormat="1" ht="15">
-      <c r="A6" s="124">
+    <row r="6" spans="1:9" s="119" customFormat="1" ht="15">
+      <c r="A6" s="122">
         <v>42609</v>
       </c>
-      <c r="B6" s="127" t="s">
+      <c r="B6" s="125" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="121">
+      <c r="C6" s="119">
         <v>3.1</v>
       </c>
-      <c r="D6" s="121">
+      <c r="D6" s="119">
         <v>0</v>
       </c>
-      <c r="E6" s="121">
+      <c r="E6" s="119">
         <v>72.320000000000007</v>
       </c>
-      <c r="F6" s="121">
+      <c r="F6" s="119">
         <v>-3.1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="121" customFormat="1" ht="15">
-      <c r="A7" s="124">
+    <row r="7" spans="1:9" s="119" customFormat="1" ht="15">
+      <c r="A7" s="122">
         <v>42610</v>
       </c>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="119" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="121">
+      <c r="C7" s="119">
         <v>0</v>
       </c>
-      <c r="D7" s="121">
+      <c r="D7" s="119">
         <v>1000</v>
       </c>
-      <c r="E7" s="121">
+      <c r="E7" s="119">
         <v>1072.32</v>
       </c>
-      <c r="F7" s="121">
+      <c r="F7" s="119">
         <v>996.9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="121" customFormat="1" ht="15">
-      <c r="A8" s="124">
+    <row r="8" spans="1:9" s="119" customFormat="1" ht="15">
+      <c r="A8" s="122">
         <v>42611</v>
       </c>
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="121">
+      <c r="C8" s="119">
         <v>34.99</v>
       </c>
-      <c r="D8" s="121">
+      <c r="D8" s="119">
         <v>0</v>
       </c>
-      <c r="E8" s="121">
+      <c r="E8" s="119">
         <v>1037.33</v>
       </c>
-      <c r="F8" s="121">
+      <c r="F8" s="119">
         <v>961.91</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="121" customFormat="1" ht="15">
-      <c r="A9" s="124">
+    <row r="9" spans="1:9" s="119" customFormat="1" ht="15">
+      <c r="A9" s="122">
         <v>42612</v>
       </c>
-      <c r="B9" s="126" t="s">
+      <c r="B9" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="121">
+      <c r="C9" s="119">
         <v>14.5</v>
       </c>
-      <c r="D9" s="121">
+      <c r="D9" s="119">
         <v>0</v>
       </c>
-      <c r="E9" s="121">
+      <c r="E9" s="119">
         <v>1022.8299999999999</v>
       </c>
-      <c r="F9" s="121">
+      <c r="F9" s="119">
         <v>947.41</v>
       </c>
     </row>
@@ -5072,9 +5067,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -5085,393 +5080,393 @@
     <col min="4" max="4" width="45.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="18.75" style="2" customWidth="1"/>
     <col min="6" max="6" width="34.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.75" style="71" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="71" customWidth="1"/>
+    <col min="7" max="7" width="11.75" style="69" customWidth="1"/>
+    <col min="8" max="8" width="11.625" style="69" customWidth="1"/>
     <col min="9" max="9" width="47" style="2" customWidth="1"/>
     <col min="10" max="10" width="28.75" style="2" customWidth="1"/>
     <col min="11" max="12" width="9" style="2" customWidth="1"/>
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15">
+    <row r="1" spans="1:10">
       <c r="A1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="92" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="71" customFormat="1" ht="15">
-      <c r="A2" s="111">
+    <row r="2" spans="1:10" s="69" customFormat="1" ht="15">
+      <c r="A2" s="109">
         <v>42611</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="35">
         <v>42592</v>
       </c>
-      <c r="C2" s="111">
+      <c r="C2" s="109">
         <v>42524</v>
       </c>
-      <c r="D2" s="107" t="s">
+      <c r="D2" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="114">
+      <c r="E2" s="112">
         <v>-9</v>
       </c>
-      <c r="F2" s="116"/>
-      <c r="G2" s="71">
+      <c r="F2" s="114"/>
+      <c r="G2" s="69">
         <v>3</v>
       </c>
-      <c r="H2" s="71">
+      <c r="H2" s="69">
         <v>2</v>
       </c>
-      <c r="I2" s="70"/>
-      <c r="J2" s="69"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="67"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="111">
+      <c r="A3" s="109">
         <v>42611</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="86">
+      <c r="B3" s="35"/>
+      <c r="C3" s="84">
         <v>42544</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="58">
+      <c r="E3" s="56">
         <v>-13</v>
       </c>
-      <c r="F3" s="116"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
+      <c r="F3" s="114"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="111">
+      <c r="A4" s="109">
         <v>42611</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="35">
         <v>42592</v>
       </c>
-      <c r="C4" s="99">
+      <c r="C4" s="97">
         <v>42562</v>
       </c>
-      <c r="D4" s="119" t="s">
+      <c r="D4" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="58">
+      <c r="E4" s="56">
         <v>-11.99</v>
       </c>
-      <c r="F4" s="116"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
+      <c r="F4" s="114"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="99"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="106">
+      <c r="A5" s="97"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="104">
         <v>42581</v>
       </c>
-      <c r="D5" s="120" t="s">
+      <c r="D5" s="118" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="58">
+      <c r="E5" s="56">
         <v>-22.15</v>
       </c>
-      <c r="F5" s="116"/>
-      <c r="G5" s="72">
+      <c r="F5" s="114"/>
+      <c r="G5" s="70">
         <v>4</v>
       </c>
-      <c r="H5" s="72">
+      <c r="H5" s="70">
         <v>5</v>
       </c>
-      <c r="I5" s="70"/>
-      <c r="J5" s="69"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="67"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="99"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="106">
+      <c r="A6" s="97"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="104">
         <v>42581</v>
       </c>
-      <c r="D6" s="120" t="s">
+      <c r="D6" s="118" t="s">
         <v>88</v>
       </c>
-      <c r="E6" s="58">
+      <c r="E6" s="56">
         <v>-0.66</v>
       </c>
-      <c r="F6" s="116"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="71"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="69"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="99"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="106">
+      <c r="A7" s="97"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="104">
         <v>42585</v>
       </c>
-      <c r="D7" s="120" t="s">
+      <c r="D7" s="118" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="58">
+      <c r="E7" s="56">
         <v>-6.85</v>
       </c>
-      <c r="F7" s="116"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="69"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="67"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="37"/>
-      <c r="C8" s="106">
+      <c r="B8" s="35"/>
+      <c r="C8" s="104">
         <v>42590</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="58">
+      <c r="E8" s="56">
         <v>-25</v>
       </c>
-      <c r="F8" s="116"/>
+      <c r="F8" s="114"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="B9" s="37"/>
-      <c r="C9" s="106">
+      <c r="B9" s="35"/>
+      <c r="C9" s="104">
         <v>42592</v>
       </c>
-      <c r="D9" s="120" t="s">
+      <c r="D9" s="118" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="58">
+      <c r="E9" s="56">
         <v>-174</v>
       </c>
-      <c r="F9" s="116"/>
+      <c r="F9" s="114"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="B10" s="37"/>
-      <c r="C10" s="106">
+      <c r="B10" s="35"/>
+      <c r="C10" s="104">
         <v>42593</v>
       </c>
-      <c r="D10" s="120" t="s">
+      <c r="D10" s="118" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="58">
+      <c r="E10" s="56">
         <v>-35.020000000000003</v>
       </c>
-      <c r="F10" s="116"/>
+      <c r="F10" s="114"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="B11" s="37"/>
-      <c r="C11" s="106">
+      <c r="B11" s="35"/>
+      <c r="C11" s="104">
         <v>42594</v>
       </c>
-      <c r="D11" s="120" t="s">
+      <c r="D11" s="118" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="58">
+      <c r="E11" s="56">
         <v>-11.99</v>
       </c>
-      <c r="F11" s="116"/>
+      <c r="F11" s="114"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="106"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="106"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="104"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="72"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="108"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="70"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="106"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="106"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="106"/>
+      <c r="A13" s="104"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="104"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="116"/>
-      <c r="I13" s="70"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="114"/>
+      <c r="I13" s="68"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="B14" s="37"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="116"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="114"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="B15" s="37"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="116"/>
+      <c r="B15" s="35"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="114"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="E16" s="115"/>
-      <c r="F16" s="116"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="114"/>
     </row>
     <row r="17" spans="5:6">
-      <c r="E17" s="115"/>
-      <c r="F17" s="116"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="114"/>
     </row>
     <row r="18" spans="5:6">
-      <c r="E18" s="115"/>
-      <c r="F18" s="116"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="114"/>
     </row>
     <row r="19" spans="5:6">
-      <c r="E19" s="115"/>
-      <c r="F19" s="116"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="114"/>
     </row>
     <row r="20" spans="5:6">
-      <c r="E20" s="115"/>
-      <c r="F20" s="116"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="114"/>
     </row>
     <row r="21" spans="5:6">
-      <c r="E21" s="115"/>
-      <c r="F21" s="116"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="114"/>
     </row>
     <row r="22" spans="5:6">
-      <c r="E22" s="115"/>
-      <c r="F22" s="116"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="114"/>
     </row>
     <row r="23" spans="5:6">
-      <c r="E23" s="115"/>
+      <c r="E23" s="113"/>
     </row>
     <row r="24" spans="5:6">
-      <c r="E24" s="115"/>
+      <c r="E24" s="113"/>
     </row>
     <row r="25" spans="5:6">
-      <c r="E25" s="115"/>
+      <c r="E25" s="113"/>
     </row>
     <row r="26" spans="5:6">
-      <c r="E26" s="115"/>
+      <c r="E26" s="113"/>
     </row>
     <row r="27" spans="5:6">
-      <c r="E27" s="115"/>
+      <c r="E27" s="113"/>
     </row>
     <row r="28" spans="5:6">
-      <c r="E28" s="115"/>
+      <c r="E28" s="113"/>
     </row>
     <row r="29" spans="5:6">
-      <c r="E29" s="115"/>
+      <c r="E29" s="113"/>
     </row>
     <row r="30" spans="5:6">
-      <c r="E30" s="115"/>
+      <c r="E30" s="113"/>
     </row>
     <row r="31" spans="5:6">
-      <c r="E31" s="115"/>
+      <c r="E31" s="113"/>
     </row>
     <row r="32" spans="5:6">
-      <c r="E32" s="115"/>
+      <c r="E32" s="113"/>
     </row>
     <row r="33" spans="5:5">
-      <c r="E33" s="115"/>
+      <c r="E33" s="113"/>
     </row>
     <row r="34" spans="5:5">
-      <c r="E34" s="115"/>
+      <c r="E34" s="113"/>
     </row>
     <row r="35" spans="5:5">
-      <c r="E35" s="115"/>
+      <c r="E35" s="113"/>
     </row>
     <row r="36" spans="5:5">
-      <c r="E36" s="115"/>
+      <c r="E36" s="113"/>
     </row>
     <row r="37" spans="5:5">
-      <c r="E37" s="115"/>
+      <c r="E37" s="113"/>
     </row>
     <row r="38" spans="5:5">
-      <c r="E38" s="115"/>
+      <c r="E38" s="113"/>
     </row>
     <row r="39" spans="5:5">
-      <c r="E39" s="115"/>
+      <c r="E39" s="113"/>
     </row>
     <row r="40" spans="5:5">
-      <c r="E40" s="115"/>
+      <c r="E40" s="113"/>
     </row>
     <row r="41" spans="5:5">
-      <c r="E41" s="115"/>
+      <c r="E41" s="113"/>
     </row>
     <row r="42" spans="5:5">
-      <c r="E42" s="115"/>
+      <c r="E42" s="113"/>
     </row>
     <row r="43" spans="5:5">
-      <c r="E43" s="115"/>
+      <c r="E43" s="113"/>
     </row>
     <row r="44" spans="5:5">
-      <c r="E44" s="115"/>
+      <c r="E44" s="113"/>
     </row>
     <row r="45" spans="5:5">
-      <c r="E45" s="115"/>
+      <c r="E45" s="113"/>
     </row>
     <row r="46" spans="5:5">
-      <c r="E46" s="115"/>
+      <c r="E46" s="113"/>
     </row>
     <row r="47" spans="5:5">
-      <c r="E47" s="115"/>
+      <c r="E47" s="113"/>
     </row>
     <row r="48" spans="5:5">
-      <c r="E48" s="115"/>
+      <c r="E48" s="113"/>
     </row>
     <row r="49" spans="5:5">
-      <c r="E49" s="115"/>
+      <c r="E49" s="113"/>
     </row>
     <row r="50" spans="5:5">
-      <c r="E50" s="115"/>
+      <c r="E50" s="113"/>
     </row>
     <row r="51" spans="5:5">
-      <c r="E51" s="115"/>
+      <c r="E51" s="113"/>
     </row>
     <row r="52" spans="5:5">
-      <c r="E52" s="115"/>
+      <c r="E52" s="113"/>
     </row>
     <row r="53" spans="5:5">
-      <c r="E53" s="115"/>
+      <c r="E53" s="113"/>
     </row>
     <row r="54" spans="5:5">
-      <c r="E54" s="115"/>
+      <c r="E54" s="113"/>
     </row>
     <row r="55" spans="5:5">
-      <c r="E55" s="115"/>
+      <c r="E55" s="113"/>
     </row>
     <row r="56" spans="5:5">
-      <c r="E56" s="115"/>
+      <c r="E56" s="113"/>
     </row>
     <row r="57" spans="5:5">
-      <c r="E57" s="115"/>
+      <c r="E57" s="113"/>
     </row>
     <row r="58" spans="5:5">
-      <c r="E58" s="115"/>
+      <c r="E58" s="113"/>
     </row>
     <row r="59" spans="5:5">
-      <c r="E59" s="115"/>
+      <c r="E59" s="113"/>
     </row>
     <row r="60" spans="5:5">
-      <c r="E60" s="115"/>
+      <c r="E60" s="113"/>
     </row>
     <row r="61" spans="5:5">
-      <c r="E61" s="115"/>
+      <c r="E61" s="113"/>
     </row>
   </sheetData>
   <sortState ref="A2:J11">
@@ -5500,21 +5495,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="39" customFormat="1">
-      <c r="A2" s="103" t="s">
+    <row r="2" spans="1:3" s="37" customFormat="1">
+      <c r="A2" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="101" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5522,7 +5517,7 @@
       <c r="A3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="101" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5530,64 +5525,64 @@
       <c r="A4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="65" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="99" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="101" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="128" t="s">
+      <c r="B7" s="126" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="103"/>
-      <c r="B8" s="71"/>
+      <c r="A8" s="101"/>
+      <c r="B8" s="69"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="103"/>
-      <c r="B9" s="71"/>
+      <c r="A9" s="101"/>
+      <c r="B9" s="69"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="67"/>
-      <c r="B10" s="67"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="65"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="72"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="88"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="86"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="67"/>
-      <c r="B12" s="103"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="101"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="104"/>
-      <c r="B13" s="103"/>
+      <c r="A13" s="102"/>
+      <c r="B13" s="101"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="118" t="s">
+      <c r="A14" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="104" t="s">
+      <c r="B14" s="102" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5598,69 +5593,69 @@
       <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="125" t="s">
+      <c r="C17" s="123" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="41" customFormat="1">
+    <row r="18" spans="1:3" s="39" customFormat="1">
       <c r="A18" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="39" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="64" customFormat="1">
-      <c r="A19" s="94" t="s">
+    <row r="19" spans="1:3" s="62" customFormat="1">
+      <c r="A19" s="92" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="74" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="118" t="s">
+      <c r="A20" s="116" t="s">
         <v>101</v>
       </c>
-      <c r="B20" s="101" t="s">
+      <c r="B20" s="99" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="94" t="s">
+      <c r="A21" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="69" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="118" t="s">
+      <c r="A22" s="116" t="s">
         <v>102</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="49" customFormat="1">
-      <c r="A23" s="118" t="s">
+    <row r="23" spans="1:3" s="47" customFormat="1">
+      <c r="A23" s="116" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="47" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="103"/>
+      <c r="A24" s="101"/>
       <c r="B24" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="103" t="s">
+      <c r="A25" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="82" t="s">
+      <c r="B25" s="80" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5668,60 +5663,60 @@
       <c r="A26" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="100" t="s">
+      <c r="B26" s="98" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="118" t="s">
+      <c r="A27" s="116" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="118" t="s">
+      <c r="B27" s="116" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="103" t="s">
+      <c r="A28" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="101" t="s">
+      <c r="B28" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="118" t="s">
+      <c r="C28" s="116" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="118"/>
-      <c r="B31" s="118"/>
+      <c r="A31" s="116"/>
+      <c r="B31" s="116"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="104" t="s">
+      <c r="B33" s="102" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="94" t="s">
+      <c r="A34" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="B34" s="71" t="s">
+      <c r="B34" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="118" t="s">
+      <c r="C34" s="116" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="94" t="s">
+      <c r="A35" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="B35" s="102" t="s">
+      <c r="B35" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="118" t="s">
+      <c r="C35" s="116" t="s">
         <v>90</v>
       </c>
     </row>
@@ -5758,41 +5753,41 @@
     <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.875" customWidth="1"/>
     <col min="9" max="9" width="17.375" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="50" customWidth="1"/>
-    <col min="11" max="11" width="9.875" style="48" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="48" customWidth="1"/>
+    <col min="11" max="11" width="9.875" style="46" customWidth="1"/>
     <col min="12" max="12" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="45" customFormat="1">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:12" s="43" customFormat="1">
+      <c r="A1" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="48"/>
-    </row>
-    <row r="2" spans="1:12" s="45" customFormat="1">
-      <c r="E2" s="149" t="s">
+      <c r="J1" s="48"/>
+      <c r="K1" s="46"/>
+    </row>
+    <row r="2" spans="1:12" s="43" customFormat="1">
+      <c r="E2" s="146" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="46" t="s">
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="47">
+      <c r="I2" s="45">
         <v>0.45</v>
       </c>
-      <c r="J2" s="53"/>
-      <c r="K2" s="48"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="46"/>
     </row>
     <row r="3" spans="1:12" ht="24">
       <c r="B3" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="43" t="s">
         <v>75</v>
       </c>
       <c r="E3" s="10" t="s">
@@ -5807,72 +5802,72 @@
       <c r="H3" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="J3" s="52" t="s">
+      <c r="J3" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="K3" s="48" t="s">
+      <c r="K3" s="46" t="s">
         <v>80</v>
       </c>
       <c r="L3" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="56" customFormat="1">
+    <row r="4" spans="1:12" s="54" customFormat="1">
       <c r="A4" s="10" t="s">
         <v>81</v>
       </c>
       <c r="B4" s="10"/>
-      <c r="C4" s="129">
+      <c r="C4" s="127">
         <f>SMALL(C7:C100,COUNTIF($C$7:$C$100,0)+1)</f>
         <v>81000</v>
       </c>
-      <c r="D4" s="57">
+      <c r="D4" s="55">
         <f>MAX(D7:D121)</f>
         <v>83964</v>
       </c>
-      <c r="E4" s="130">
+      <c r="E4" s="128">
         <f>AVERAGEIF(E7:E1000,"&lt;&gt;0")</f>
         <v>76</v>
       </c>
-      <c r="F4" s="130">
+      <c r="F4" s="128">
         <f>AVERAGEIF(F7:F1000,"&lt;&gt;0")</f>
         <v>329.33333333333331</v>
       </c>
-      <c r="G4" s="87">
+      <c r="G4" s="85">
         <f>SUM(E7:E2073)</f>
         <v>2964</v>
       </c>
-      <c r="H4" s="130">
+      <c r="H4" s="128">
         <f>AVERAGEIF(H7:H1000,"&lt;&gt;0")</f>
         <v>148.19999999999999</v>
       </c>
-      <c r="I4" s="58">
+      <c r="I4" s="56">
         <f>MAX(I7:I329)</f>
         <v>1333.8</v>
       </c>
-      <c r="J4" s="58">
+      <c r="J4" s="56">
         <f>SUM(J7:J229)</f>
         <v>0</v>
       </c>
       <c r="L4" s="10"/>
     </row>
-    <row r="5" spans="1:12" s="68" customFormat="1">
+    <row r="5" spans="1:12" s="66" customFormat="1">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" s="56" customFormat="1">
+    <row r="6" spans="1:12" s="54" customFormat="1">
       <c r="A6" s="10" t="s">
         <v>82</v>
       </c>
@@ -5881,1398 +5876,1398 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="52"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="50"/>
       <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="142">
+      <c r="A7" s="139">
         <v>43692</v>
       </c>
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93">
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91">
         <v>0</v>
       </c>
-      <c r="F7" s="143">
+      <c r="F7" s="140">
         <f>SUM(E7:E11)</f>
         <v>228</v>
       </c>
-      <c r="G7" s="143">
+      <c r="G7" s="140">
         <f>F7</f>
         <v>228</v>
       </c>
-      <c r="H7" s="144">
+      <c r="H7" s="141">
         <f>F7*$I$2</f>
         <v>102.60000000000001</v>
       </c>
-      <c r="I7" s="144">
+      <c r="I7" s="141">
         <f>H7</f>
         <v>102.60000000000001</v>
       </c>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
       <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="142"/>
-      <c r="B8" s="94" t="s">
+      <c r="A8" s="139"/>
+      <c r="B8" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93">
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91">
         <v>0</v>
       </c>
-      <c r="F8" s="143"/>
-      <c r="G8" s="143"/>
-      <c r="H8" s="144"/>
-      <c r="I8" s="144"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="74"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="141"/>
+      <c r="I8" s="141"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="72"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="142"/>
-      <c r="B9" s="94" t="s">
+      <c r="A9" s="139"/>
+      <c r="B9" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="93">
+      <c r="C9" s="91">
         <v>81000</v>
       </c>
-      <c r="D9" s="93">
+      <c r="D9" s="91">
         <f>C9+E9</f>
         <v>81076</v>
       </c>
-      <c r="E9" s="93">
+      <c r="E9" s="91">
         <v>76</v>
       </c>
-      <c r="F9" s="143"/>
-      <c r="G9" s="143"/>
-      <c r="H9" s="144"/>
-      <c r="I9" s="144"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="74"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="93"/>
+      <c r="K9" s="93"/>
+      <c r="L9" s="72"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="142"/>
-      <c r="B10" s="94" t="s">
+      <c r="A10" s="139"/>
+      <c r="B10" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="93">
+      <c r="C10" s="91">
         <f>D9</f>
         <v>81076</v>
       </c>
-      <c r="D10" s="93">
+      <c r="D10" s="91">
         <f t="shared" ref="D10:D31" si="0">C10+E10</f>
         <v>81152</v>
       </c>
-      <c r="E10" s="93">
+      <c r="E10" s="91">
         <v>76</v>
       </c>
-      <c r="F10" s="143"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="144"/>
-      <c r="I10" s="144"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="74"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="72"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="142"/>
-      <c r="B11" s="94" t="s">
+      <c r="A11" s="139"/>
+      <c r="B11" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="93">
+      <c r="C11" s="91">
         <f t="shared" ref="C11:C31" si="1">D10</f>
         <v>81152</v>
       </c>
-      <c r="D11" s="93">
+      <c r="D11" s="91">
         <f t="shared" si="0"/>
         <v>81228</v>
       </c>
-      <c r="E11" s="93">
+      <c r="E11" s="91">
         <v>76</v>
       </c>
-      <c r="F11" s="143"/>
-      <c r="G11" s="143"/>
-      <c r="H11" s="144"/>
-      <c r="I11" s="144"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="74"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="141"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="72"/>
     </row>
     <row r="12" spans="1:12" ht="10.5" customHeight="1">
-      <c r="A12" s="145">
+      <c r="A12" s="142">
         <f>A7+7</f>
         <v>43699</v>
       </c>
-      <c r="B12" s="96" t="s">
+      <c r="B12" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="97">
+      <c r="C12" s="95">
         <f t="shared" si="1"/>
         <v>81228</v>
       </c>
-      <c r="D12" s="97">
+      <c r="D12" s="95">
         <f t="shared" si="0"/>
         <v>81304</v>
       </c>
-      <c r="E12" s="97">
+      <c r="E12" s="95">
         <v>76</v>
       </c>
-      <c r="F12" s="146">
+      <c r="F12" s="143">
         <f>SUM(E12:E16)</f>
         <v>380</v>
       </c>
-      <c r="G12" s="146">
+      <c r="G12" s="143">
         <f>G7+F12</f>
         <v>608</v>
       </c>
-      <c r="H12" s="147">
+      <c r="H12" s="144">
         <f>F12*$I$2</f>
         <v>171</v>
       </c>
-      <c r="I12" s="147">
+      <c r="I12" s="144">
         <f>I7+H12</f>
         <v>273.60000000000002</v>
       </c>
-      <c r="J12" s="98"/>
-      <c r="K12" s="98"/>
-      <c r="L12" s="74"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="72"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="145"/>
-      <c r="B13" s="96" t="s">
+      <c r="A13" s="142"/>
+      <c r="B13" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="97">
+      <c r="C13" s="95">
         <f t="shared" si="1"/>
         <v>81304</v>
       </c>
-      <c r="D13" s="97">
+      <c r="D13" s="95">
         <f t="shared" si="0"/>
         <v>81380</v>
       </c>
-      <c r="E13" s="97">
+      <c r="E13" s="95">
         <v>76</v>
       </c>
-      <c r="F13" s="146"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
-      <c r="L13" s="74"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="144"/>
+      <c r="I13" s="144"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="72"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="145"/>
-      <c r="B14" s="96" t="s">
+      <c r="A14" s="142"/>
+      <c r="B14" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="97">
+      <c r="C14" s="95">
         <f t="shared" si="1"/>
         <v>81380</v>
       </c>
-      <c r="D14" s="97">
+      <c r="D14" s="95">
         <f t="shared" si="0"/>
         <v>81456</v>
       </c>
-      <c r="E14" s="97">
+      <c r="E14" s="95">
         <v>76</v>
       </c>
-      <c r="F14" s="146"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="147"/>
-      <c r="I14" s="147"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="74"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="143"/>
+      <c r="H14" s="144"/>
+      <c r="I14" s="144"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="72"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="145"/>
-      <c r="B15" s="96" t="s">
+      <c r="A15" s="142"/>
+      <c r="B15" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="97">
+      <c r="C15" s="95">
         <f t="shared" si="1"/>
         <v>81456</v>
       </c>
-      <c r="D15" s="97">
+      <c r="D15" s="95">
         <f t="shared" si="0"/>
         <v>81532</v>
       </c>
-      <c r="E15" s="97">
+      <c r="E15" s="95">
         <v>76</v>
       </c>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="147"/>
-      <c r="I15" s="147"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="74"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="144"/>
+      <c r="I15" s="144"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="72"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="145"/>
-      <c r="B16" s="96" t="s">
+      <c r="A16" s="142"/>
+      <c r="B16" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="97">
+      <c r="C16" s="95">
         <f t="shared" si="1"/>
         <v>81532</v>
       </c>
-      <c r="D16" s="97">
+      <c r="D16" s="95">
         <f t="shared" si="0"/>
         <v>81608</v>
       </c>
-      <c r="E16" s="97">
+      <c r="E16" s="95">
         <v>76</v>
       </c>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
       <c r="L16" s="10"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="142">
+      <c r="A17" s="139">
         <f>A12+7</f>
         <v>43706</v>
       </c>
-      <c r="B17" s="94" t="s">
+      <c r="B17" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="143">
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="140">
         <f>SUM(E17:E21)</f>
         <v>304</v>
       </c>
-      <c r="G17" s="143">
+      <c r="G17" s="140">
         <f>G12+F17</f>
         <v>912</v>
       </c>
-      <c r="H17" s="144">
+      <c r="H17" s="141">
         <f>F17*$I$2</f>
         <v>136.80000000000001</v>
       </c>
-      <c r="I17" s="144">
+      <c r="I17" s="141">
         <f>I12+H17</f>
         <v>410.40000000000003</v>
       </c>
-      <c r="J17" s="95"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="74"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="72"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="142"/>
-      <c r="B18" s="94" t="s">
+      <c r="A18" s="139"/>
+      <c r="B18" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="93">
+      <c r="C18" s="91">
         <f>D16</f>
         <v>81608</v>
       </c>
-      <c r="D18" s="93">
+      <c r="D18" s="91">
         <f t="shared" si="0"/>
         <v>81684</v>
       </c>
-      <c r="E18" s="93">
+      <c r="E18" s="91">
         <v>76</v>
       </c>
-      <c r="F18" s="143"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="144"/>
-      <c r="I18" s="144"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="74"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="141"/>
+      <c r="J18" s="93"/>
+      <c r="K18" s="93"/>
+      <c r="L18" s="72"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="142"/>
-      <c r="B19" s="94" t="s">
+      <c r="A19" s="139"/>
+      <c r="B19" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="93">
+      <c r="C19" s="91">
         <f t="shared" si="1"/>
         <v>81684</v>
       </c>
-      <c r="D19" s="93">
+      <c r="D19" s="91">
         <f t="shared" si="0"/>
         <v>81760</v>
       </c>
-      <c r="E19" s="93">
+      <c r="E19" s="91">
         <v>76</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="144"/>
-      <c r="I19" s="144"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="74"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="141"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="93"/>
+      <c r="L19" s="72"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="142"/>
-      <c r="B20" s="94" t="s">
+      <c r="A20" s="139"/>
+      <c r="B20" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="93">
+      <c r="C20" s="91">
         <f t="shared" si="1"/>
         <v>81760</v>
       </c>
-      <c r="D20" s="93">
+      <c r="D20" s="91">
         <f t="shared" si="0"/>
         <v>81836</v>
       </c>
-      <c r="E20" s="93">
+      <c r="E20" s="91">
         <v>76</v>
       </c>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="144"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="74"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="141"/>
+      <c r="I20" s="141"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="93"/>
+      <c r="L20" s="72"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="142"/>
-      <c r="B21" s="94" t="s">
+      <c r="A21" s="139"/>
+      <c r="B21" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="93">
+      <c r="C21" s="91">
         <f t="shared" si="1"/>
         <v>81836</v>
       </c>
-      <c r="D21" s="93">
+      <c r="D21" s="91">
         <f t="shared" si="0"/>
         <v>81912</v>
       </c>
-      <c r="E21" s="93">
+      <c r="E21" s="91">
         <v>76</v>
       </c>
-      <c r="F21" s="143"/>
-      <c r="G21" s="143"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="144"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="74"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="141"/>
+      <c r="I21" s="141"/>
+      <c r="J21" s="93"/>
+      <c r="K21" s="93"/>
+      <c r="L21" s="72"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="145">
+      <c r="A22" s="142">
         <f>A17+7</f>
         <v>43713</v>
       </c>
-      <c r="B22" s="96" t="s">
+      <c r="B22" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="97">
+      <c r="C22" s="95">
         <f t="shared" si="1"/>
         <v>81912</v>
       </c>
-      <c r="D22" s="97">
+      <c r="D22" s="95">
         <f t="shared" si="0"/>
         <v>81988</v>
       </c>
-      <c r="E22" s="97">
+      <c r="E22" s="95">
         <v>76</v>
       </c>
-      <c r="F22" s="146">
+      <c r="F22" s="143">
         <f>SUM(E22:E26)</f>
         <v>380</v>
       </c>
-      <c r="G22" s="146">
+      <c r="G22" s="143">
         <f>G17+F22</f>
         <v>1292</v>
       </c>
-      <c r="H22" s="147">
+      <c r="H22" s="144">
         <f>F22*$I$2</f>
         <v>171</v>
       </c>
-      <c r="I22" s="147">
+      <c r="I22" s="144">
         <f>I17+H22</f>
         <v>581.40000000000009</v>
       </c>
-      <c r="J22" s="98"/>
-      <c r="K22" s="98"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
       <c r="L22" s="10"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="145"/>
-      <c r="B23" s="96" t="s">
+      <c r="A23" s="142"/>
+      <c r="B23" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="97">
+      <c r="C23" s="95">
         <f t="shared" si="1"/>
         <v>81988</v>
       </c>
-      <c r="D23" s="97">
+      <c r="D23" s="95">
         <f t="shared" si="0"/>
         <v>82064</v>
       </c>
-      <c r="E23" s="97">
+      <c r="E23" s="95">
         <v>76</v>
       </c>
-      <c r="F23" s="146"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="147"/>
-      <c r="I23" s="147"/>
-      <c r="J23" s="98"/>
-      <c r="K23" s="98"/>
-      <c r="L23" s="74"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="144"/>
+      <c r="I23" s="144"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="72"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="145"/>
-      <c r="B24" s="96" t="s">
+      <c r="A24" s="142"/>
+      <c r="B24" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="97">
+      <c r="C24" s="95">
         <f t="shared" si="1"/>
         <v>82064</v>
       </c>
-      <c r="D24" s="97">
+      <c r="D24" s="95">
         <f t="shared" si="0"/>
         <v>82140</v>
       </c>
-      <c r="E24" s="97">
+      <c r="E24" s="95">
         <v>76</v>
       </c>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="147"/>
-      <c r="I24" s="147"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="98"/>
-      <c r="L24" s="74"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="144"/>
+      <c r="I24" s="144"/>
+      <c r="J24" s="96"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="72"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="145"/>
-      <c r="B25" s="96" t="s">
+      <c r="A25" s="142"/>
+      <c r="B25" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="97">
+      <c r="C25" s="95">
         <f t="shared" si="1"/>
         <v>82140</v>
       </c>
-      <c r="D25" s="97">
+      <c r="D25" s="95">
         <f t="shared" si="0"/>
         <v>82216</v>
       </c>
-      <c r="E25" s="97">
+      <c r="E25" s="95">
         <v>76</v>
       </c>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="147"/>
-      <c r="I25" s="147"/>
-      <c r="J25" s="98"/>
-      <c r="K25" s="98"/>
-      <c r="L25" s="74"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="144"/>
+      <c r="I25" s="144"/>
+      <c r="J25" s="96"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="72"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="145"/>
-      <c r="B26" s="96" t="s">
+      <c r="A26" s="142"/>
+      <c r="B26" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="97">
+      <c r="C26" s="95">
         <f t="shared" si="1"/>
         <v>82216</v>
       </c>
-      <c r="D26" s="97">
+      <c r="D26" s="95">
         <f t="shared" si="0"/>
         <v>82292</v>
       </c>
-      <c r="E26" s="97">
+      <c r="E26" s="95">
         <v>76</v>
       </c>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="147"/>
-      <c r="I26" s="147"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="98"/>
-      <c r="L26" s="74"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="144"/>
+      <c r="I26" s="144"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="72"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="142">
+      <c r="A27" s="139">
         <f>A22+7</f>
         <v>43720</v>
       </c>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="93">
+      <c r="C27" s="91">
         <f t="shared" si="1"/>
         <v>82292</v>
       </c>
-      <c r="D27" s="93">
+      <c r="D27" s="91">
         <f t="shared" si="0"/>
         <v>82368</v>
       </c>
-      <c r="E27" s="93">
+      <c r="E27" s="91">
         <v>76</v>
       </c>
-      <c r="F27" s="143">
+      <c r="F27" s="140">
         <f>SUM(E27:E31)</f>
         <v>380</v>
       </c>
-      <c r="G27" s="143">
+      <c r="G27" s="140">
         <f>G22+F27</f>
         <v>1672</v>
       </c>
-      <c r="H27" s="144">
+      <c r="H27" s="141">
         <f>F27*$I$2</f>
         <v>171</v>
       </c>
-      <c r="I27" s="144">
+      <c r="I27" s="141">
         <f>I22+H27</f>
         <v>752.40000000000009</v>
       </c>
-      <c r="J27" s="95"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="74"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="93"/>
+      <c r="L27" s="72"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="142"/>
-      <c r="B28" s="94" t="s">
+      <c r="A28" s="139"/>
+      <c r="B28" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="93">
+      <c r="C28" s="91">
         <f t="shared" si="1"/>
         <v>82368</v>
       </c>
-      <c r="D28" s="93">
+      <c r="D28" s="91">
         <f t="shared" si="0"/>
         <v>82444</v>
       </c>
-      <c r="E28" s="93">
+      <c r="E28" s="91">
         <v>76</v>
       </c>
-      <c r="F28" s="143"/>
-      <c r="G28" s="143"/>
-      <c r="H28" s="144"/>
-      <c r="I28" s="144"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="74"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="140"/>
+      <c r="H28" s="141"/>
+      <c r="I28" s="141"/>
+      <c r="J28" s="93"/>
+      <c r="K28" s="93"/>
+      <c r="L28" s="72"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="142"/>
-      <c r="B29" s="94" t="s">
+      <c r="A29" s="139"/>
+      <c r="B29" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="93">
+      <c r="C29" s="91">
         <f t="shared" si="1"/>
         <v>82444</v>
       </c>
-      <c r="D29" s="93">
+      <c r="D29" s="91">
         <f t="shared" si="0"/>
         <v>82520</v>
       </c>
-      <c r="E29" s="93">
+      <c r="E29" s="91">
         <v>76</v>
       </c>
-      <c r="F29" s="143"/>
-      <c r="G29" s="143"/>
-      <c r="H29" s="144"/>
-      <c r="I29" s="144"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="74"/>
+      <c r="F29" s="140"/>
+      <c r="G29" s="140"/>
+      <c r="H29" s="141"/>
+      <c r="I29" s="141"/>
+      <c r="J29" s="93"/>
+      <c r="K29" s="93"/>
+      <c r="L29" s="72"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="142"/>
-      <c r="B30" s="94" t="s">
+      <c r="A30" s="139"/>
+      <c r="B30" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="93">
+      <c r="C30" s="91">
         <f t="shared" si="1"/>
         <v>82520</v>
       </c>
-      <c r="D30" s="93">
+      <c r="D30" s="91">
         <f t="shared" si="0"/>
         <v>82596</v>
       </c>
-      <c r="E30" s="93">
+      <c r="E30" s="91">
         <v>76</v>
       </c>
-      <c r="F30" s="143"/>
-      <c r="G30" s="143"/>
-      <c r="H30" s="144"/>
-      <c r="I30" s="144"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="74"/>
+      <c r="F30" s="140"/>
+      <c r="G30" s="140"/>
+      <c r="H30" s="141"/>
+      <c r="I30" s="141"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="93"/>
+      <c r="L30" s="72"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="142"/>
-      <c r="B31" s="94" t="s">
+      <c r="A31" s="139"/>
+      <c r="B31" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="93">
+      <c r="C31" s="91">
         <f t="shared" si="1"/>
         <v>82596</v>
       </c>
-      <c r="D31" s="93">
+      <c r="D31" s="91">
         <f t="shared" si="0"/>
         <v>82672</v>
       </c>
-      <c r="E31" s="93">
+      <c r="E31" s="91">
         <v>76</v>
       </c>
-      <c r="F31" s="143"/>
-      <c r="G31" s="143"/>
-      <c r="H31" s="144"/>
-      <c r="I31" s="144"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="74"/>
+      <c r="F31" s="140"/>
+      <c r="G31" s="140"/>
+      <c r="H31" s="141"/>
+      <c r="I31" s="141"/>
+      <c r="J31" s="93"/>
+      <c r="K31" s="93"/>
+      <c r="L31" s="72"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="145">
+      <c r="A32" s="142">
         <f>A27+7</f>
         <v>43727</v>
       </c>
-      <c r="B32" s="96" t="s">
+      <c r="B32" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="97"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97">
+      <c r="C32" s="95"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95">
         <v>0</v>
       </c>
-      <c r="F32" s="148">
+      <c r="F32" s="145">
         <f>SUM(E32:E36)</f>
         <v>304</v>
       </c>
-      <c r="G32" s="148">
+      <c r="G32" s="145">
         <f>G27+F32</f>
         <v>1976</v>
       </c>
-      <c r="H32" s="147">
+      <c r="H32" s="144">
         <f>F32*$I$2</f>
         <v>136.80000000000001</v>
       </c>
-      <c r="I32" s="147">
+      <c r="I32" s="144">
         <f>I27+H32</f>
         <v>889.2</v>
       </c>
-      <c r="J32" s="98"/>
-      <c r="K32" s="98"/>
-      <c r="L32" s="117"/>
+      <c r="J32" s="96"/>
+      <c r="K32" s="96"/>
+      <c r="L32" s="115"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="145"/>
-      <c r="B33" s="96" t="s">
+      <c r="A33" s="142"/>
+      <c r="B33" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="97">
+      <c r="C33" s="95">
         <f>D31</f>
         <v>82672</v>
       </c>
-      <c r="D33" s="97">
+      <c r="D33" s="95">
         <f t="shared" ref="D33:D50" si="2">C33+E33</f>
         <v>82748</v>
       </c>
-      <c r="E33" s="97">
+      <c r="E33" s="95">
         <v>76</v>
       </c>
-      <c r="F33" s="148"/>
-      <c r="G33" s="148"/>
-      <c r="H33" s="147"/>
-      <c r="I33" s="147"/>
-      <c r="J33" s="98"/>
-      <c r="K33" s="98"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="145"/>
+      <c r="H33" s="144"/>
+      <c r="I33" s="144"/>
+      <c r="J33" s="96"/>
+      <c r="K33" s="96"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="145"/>
-      <c r="B34" s="96" t="s">
+      <c r="A34" s="142"/>
+      <c r="B34" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="97">
+      <c r="C34" s="95">
         <f t="shared" ref="C34:C50" si="3">D33</f>
         <v>82748</v>
       </c>
-      <c r="D34" s="97">
+      <c r="D34" s="95">
         <f t="shared" si="2"/>
         <v>82824</v>
       </c>
-      <c r="E34" s="97">
+      <c r="E34" s="95">
         <v>76</v>
       </c>
-      <c r="F34" s="148"/>
-      <c r="G34" s="148"/>
-      <c r="H34" s="147"/>
-      <c r="I34" s="147"/>
-      <c r="J34" s="98"/>
-      <c r="K34" s="98"/>
+      <c r="F34" s="145"/>
+      <c r="G34" s="145"/>
+      <c r="H34" s="144"/>
+      <c r="I34" s="144"/>
+      <c r="J34" s="96"/>
+      <c r="K34" s="96"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="145"/>
-      <c r="B35" s="96" t="s">
+      <c r="A35" s="142"/>
+      <c r="B35" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="C35" s="97">
+      <c r="C35" s="95">
         <f t="shared" si="3"/>
         <v>82824</v>
       </c>
-      <c r="D35" s="97">
+      <c r="D35" s="95">
         <f t="shared" si="2"/>
         <v>82900</v>
       </c>
-      <c r="E35" s="97">
+      <c r="E35" s="95">
         <v>76</v>
       </c>
-      <c r="F35" s="148"/>
-      <c r="G35" s="148"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="147"/>
-      <c r="J35" s="98"/>
-      <c r="K35" s="98"/>
+      <c r="F35" s="145"/>
+      <c r="G35" s="145"/>
+      <c r="H35" s="144"/>
+      <c r="I35" s="144"/>
+      <c r="J35" s="96"/>
+      <c r="K35" s="96"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="145"/>
-      <c r="B36" s="96" t="s">
+      <c r="A36" s="142"/>
+      <c r="B36" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="97">
+      <c r="C36" s="95">
         <f t="shared" si="3"/>
         <v>82900</v>
       </c>
-      <c r="D36" s="97">
+      <c r="D36" s="95">
         <f t="shared" si="2"/>
         <v>82976</v>
       </c>
-      <c r="E36" s="97">
+      <c r="E36" s="95">
         <v>76</v>
       </c>
-      <c r="F36" s="148"/>
-      <c r="G36" s="148"/>
-      <c r="H36" s="147"/>
-      <c r="I36" s="147"/>
-      <c r="J36" s="98"/>
-      <c r="K36" s="98"/>
+      <c r="F36" s="145"/>
+      <c r="G36" s="145"/>
+      <c r="H36" s="144"/>
+      <c r="I36" s="144"/>
+      <c r="J36" s="96"/>
+      <c r="K36" s="96"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="142">
+      <c r="A37" s="139">
         <f>A32+7</f>
         <v>43734</v>
       </c>
-      <c r="B37" s="94" t="s">
+      <c r="B37" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="93">
+      <c r="C37" s="91">
         <f t="shared" si="3"/>
         <v>82976</v>
       </c>
-      <c r="D37" s="93">
+      <c r="D37" s="91">
         <f t="shared" si="2"/>
         <v>83052</v>
       </c>
-      <c r="E37" s="93">
+      <c r="E37" s="91">
         <v>76</v>
       </c>
-      <c r="F37" s="143">
+      <c r="F37" s="140">
         <f>SUM(E37:E41)</f>
         <v>380</v>
       </c>
-      <c r="G37" s="143">
+      <c r="G37" s="140">
         <f>G32+F37</f>
         <v>2356</v>
       </c>
-      <c r="H37" s="144">
+      <c r="H37" s="141">
         <f>F37*$I$2</f>
         <v>171</v>
       </c>
-      <c r="I37" s="144">
+      <c r="I37" s="141">
         <f>I32+H37</f>
         <v>1060.2</v>
       </c>
-      <c r="J37" s="95"/>
-      <c r="K37" s="95"/>
+      <c r="J37" s="93"/>
+      <c r="K37" s="93"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="142"/>
-      <c r="B38" s="94" t="s">
+      <c r="A38" s="139"/>
+      <c r="B38" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="93">
+      <c r="C38" s="91">
         <f t="shared" si="3"/>
         <v>83052</v>
       </c>
-      <c r="D38" s="93">
+      <c r="D38" s="91">
         <f t="shared" si="2"/>
         <v>83128</v>
       </c>
-      <c r="E38" s="93">
+      <c r="E38" s="91">
         <v>76</v>
       </c>
-      <c r="F38" s="143"/>
-      <c r="G38" s="143"/>
-      <c r="H38" s="144"/>
-      <c r="I38" s="144"/>
-      <c r="J38" s="95"/>
-      <c r="K38" s="95"/>
+      <c r="F38" s="140"/>
+      <c r="G38" s="140"/>
+      <c r="H38" s="141"/>
+      <c r="I38" s="141"/>
+      <c r="J38" s="93"/>
+      <c r="K38" s="93"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="142"/>
-      <c r="B39" s="94" t="s">
+      <c r="A39" s="139"/>
+      <c r="B39" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="93">
+      <c r="C39" s="91">
         <f t="shared" si="3"/>
         <v>83128</v>
       </c>
-      <c r="D39" s="93">
+      <c r="D39" s="91">
         <f t="shared" si="2"/>
         <v>83204</v>
       </c>
-      <c r="E39" s="93">
+      <c r="E39" s="91">
         <v>76</v>
       </c>
-      <c r="F39" s="143"/>
-      <c r="G39" s="143"/>
-      <c r="H39" s="144"/>
-      <c r="I39" s="144"/>
-      <c r="J39" s="95"/>
-      <c r="K39" s="95"/>
+      <c r="F39" s="140"/>
+      <c r="G39" s="140"/>
+      <c r="H39" s="141"/>
+      <c r="I39" s="141"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="142"/>
-      <c r="B40" s="94" t="s">
+      <c r="A40" s="139"/>
+      <c r="B40" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="93">
+      <c r="C40" s="91">
         <f t="shared" si="3"/>
         <v>83204</v>
       </c>
-      <c r="D40" s="93">
+      <c r="D40" s="91">
         <f t="shared" si="2"/>
         <v>83280</v>
       </c>
-      <c r="E40" s="93">
+      <c r="E40" s="91">
         <v>76</v>
       </c>
-      <c r="F40" s="143"/>
-      <c r="G40" s="143"/>
-      <c r="H40" s="144"/>
-      <c r="I40" s="144"/>
-      <c r="J40" s="95"/>
-      <c r="K40" s="95"/>
+      <c r="F40" s="140"/>
+      <c r="G40" s="140"/>
+      <c r="H40" s="141"/>
+      <c r="I40" s="141"/>
+      <c r="J40" s="93"/>
+      <c r="K40" s="93"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="142"/>
-      <c r="B41" s="94" t="s">
+      <c r="A41" s="139"/>
+      <c r="B41" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="93">
+      <c r="C41" s="91">
         <f t="shared" si="3"/>
         <v>83280</v>
       </c>
-      <c r="D41" s="93">
+      <c r="D41" s="91">
         <f t="shared" si="2"/>
         <v>83356</v>
       </c>
-      <c r="E41" s="93">
+      <c r="E41" s="91">
         <v>76</v>
       </c>
-      <c r="F41" s="143"/>
-      <c r="G41" s="143"/>
-      <c r="H41" s="144"/>
-      <c r="I41" s="144"/>
-      <c r="J41" s="95"/>
-      <c r="K41" s="95"/>
+      <c r="F41" s="140"/>
+      <c r="G41" s="140"/>
+      <c r="H41" s="141"/>
+      <c r="I41" s="141"/>
+      <c r="J41" s="93"/>
+      <c r="K41" s="93"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="145">
+      <c r="A42" s="142">
         <f>A37+7</f>
         <v>43741</v>
       </c>
-      <c r="B42" s="96" t="s">
+      <c r="B42" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="97">
+      <c r="C42" s="95">
         <f t="shared" si="3"/>
         <v>83356</v>
       </c>
-      <c r="D42" s="97">
+      <c r="D42" s="95">
         <f t="shared" si="2"/>
         <v>83432</v>
       </c>
-      <c r="E42" s="97">
+      <c r="E42" s="95">
         <v>76</v>
       </c>
-      <c r="F42" s="148">
+      <c r="F42" s="145">
         <f>SUM(E42:E46)</f>
         <v>304</v>
       </c>
-      <c r="G42" s="148">
+      <c r="G42" s="145">
         <f>G37+F42</f>
         <v>2660</v>
       </c>
-      <c r="H42" s="147">
+      <c r="H42" s="144">
         <f>F42*$I$2</f>
         <v>136.80000000000001</v>
       </c>
-      <c r="I42" s="147">
+      <c r="I42" s="144">
         <f>I37+H42</f>
         <v>1197</v>
       </c>
-      <c r="J42" s="98"/>
-      <c r="K42" s="98"/>
+      <c r="J42" s="96"/>
+      <c r="K42" s="96"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="145"/>
-      <c r="B43" s="96" t="s">
+      <c r="A43" s="142"/>
+      <c r="B43" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="97">
+      <c r="C43" s="95">
         <f t="shared" si="3"/>
         <v>83432</v>
       </c>
-      <c r="D43" s="97">
+      <c r="D43" s="95">
         <f t="shared" si="2"/>
         <v>83508</v>
       </c>
-      <c r="E43" s="97">
+      <c r="E43" s="95">
         <v>76</v>
       </c>
-      <c r="F43" s="148"/>
-      <c r="G43" s="148"/>
-      <c r="H43" s="147"/>
-      <c r="I43" s="147"/>
-      <c r="J43" s="98"/>
-      <c r="K43" s="98"/>
+      <c r="F43" s="145"/>
+      <c r="G43" s="145"/>
+      <c r="H43" s="144"/>
+      <c r="I43" s="144"/>
+      <c r="J43" s="96"/>
+      <c r="K43" s="96"/>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="145"/>
-      <c r="B44" s="96" t="s">
+      <c r="A44" s="142"/>
+      <c r="B44" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="97">
+      <c r="C44" s="95">
         <f t="shared" si="3"/>
         <v>83508</v>
       </c>
-      <c r="D44" s="97">
+      <c r="D44" s="95">
         <f t="shared" si="2"/>
         <v>83584</v>
       </c>
-      <c r="E44" s="97">
+      <c r="E44" s="95">
         <v>76</v>
       </c>
-      <c r="F44" s="148"/>
-      <c r="G44" s="148"/>
-      <c r="H44" s="147"/>
-      <c r="I44" s="147"/>
-      <c r="J44" s="98"/>
-      <c r="K44" s="98"/>
+      <c r="F44" s="145"/>
+      <c r="G44" s="145"/>
+      <c r="H44" s="144"/>
+      <c r="I44" s="144"/>
+      <c r="J44" s="96"/>
+      <c r="K44" s="96"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="145"/>
-      <c r="B45" s="96" t="s">
+      <c r="A45" s="142"/>
+      <c r="B45" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="97">
+      <c r="C45" s="95">
         <f t="shared" si="3"/>
         <v>83584</v>
       </c>
-      <c r="D45" s="97">
+      <c r="D45" s="95">
         <f t="shared" si="2"/>
         <v>83660</v>
       </c>
-      <c r="E45" s="97">
+      <c r="E45" s="95">
         <v>76</v>
       </c>
-      <c r="F45" s="148"/>
-      <c r="G45" s="148"/>
-      <c r="H45" s="147"/>
-      <c r="I45" s="147"/>
-      <c r="J45" s="98"/>
-      <c r="K45" s="98"/>
+      <c r="F45" s="145"/>
+      <c r="G45" s="145"/>
+      <c r="H45" s="144"/>
+      <c r="I45" s="144"/>
+      <c r="J45" s="96"/>
+      <c r="K45" s="96"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="145"/>
-      <c r="B46" s="96" t="s">
+      <c r="A46" s="142"/>
+      <c r="B46" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="C46" s="97"/>
-      <c r="D46" s="97"/>
-      <c r="E46" s="97">
+      <c r="C46" s="95"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="95">
         <v>0</v>
       </c>
-      <c r="F46" s="148"/>
-      <c r="G46" s="148"/>
-      <c r="H46" s="147"/>
-      <c r="I46" s="147"/>
-      <c r="J46" s="98"/>
-      <c r="K46" s="98"/>
-      <c r="L46" s="117"/>
+      <c r="F46" s="145"/>
+      <c r="G46" s="145"/>
+      <c r="H46" s="144"/>
+      <c r="I46" s="144"/>
+      <c r="J46" s="96"/>
+      <c r="K46" s="96"/>
+      <c r="L46" s="115"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="142">
+      <c r="A47" s="139">
         <f>A42+7</f>
         <v>43748</v>
       </c>
-      <c r="B47" s="94" t="s">
+      <c r="B47" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="93"/>
-      <c r="D47" s="93"/>
-      <c r="E47" s="93">
+      <c r="C47" s="91"/>
+      <c r="D47" s="91"/>
+      <c r="E47" s="91">
         <v>0</v>
       </c>
-      <c r="F47" s="143">
+      <c r="F47" s="140">
         <f>SUM(E47:E51)</f>
         <v>304</v>
       </c>
-      <c r="G47" s="143">
+      <c r="G47" s="140">
         <f>G42+F47</f>
         <v>2964</v>
       </c>
-      <c r="H47" s="144">
+      <c r="H47" s="141">
         <f>F47*$I$2</f>
         <v>136.80000000000001</v>
       </c>
-      <c r="I47" s="144">
+      <c r="I47" s="141">
         <f>I42+H47</f>
         <v>1333.8</v>
       </c>
-      <c r="J47" s="95"/>
-      <c r="K47" s="95"/>
-      <c r="L47" s="117"/>
+      <c r="J47" s="93"/>
+      <c r="K47" s="93"/>
+      <c r="L47" s="115"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="142"/>
-      <c r="B48" s="94" t="s">
+      <c r="A48" s="139"/>
+      <c r="B48" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="93">
+      <c r="C48" s="91">
         <f>D45</f>
         <v>83660</v>
       </c>
-      <c r="D48" s="93">
+      <c r="D48" s="91">
         <f t="shared" si="2"/>
         <v>83736</v>
       </c>
-      <c r="E48" s="93">
+      <c r="E48" s="91">
         <v>76</v>
       </c>
-      <c r="F48" s="143"/>
-      <c r="G48" s="143"/>
-      <c r="H48" s="144"/>
-      <c r="I48" s="144"/>
-      <c r="J48" s="95"/>
-      <c r="K48" s="95"/>
+      <c r="F48" s="140"/>
+      <c r="G48" s="140"/>
+      <c r="H48" s="141"/>
+      <c r="I48" s="141"/>
+      <c r="J48" s="93"/>
+      <c r="K48" s="93"/>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="142"/>
-      <c r="B49" s="94" t="s">
+      <c r="A49" s="139"/>
+      <c r="B49" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="C49" s="93">
+      <c r="C49" s="91">
         <f t="shared" si="3"/>
         <v>83736</v>
       </c>
-      <c r="D49" s="93">
+      <c r="D49" s="91">
         <f t="shared" si="2"/>
         <v>83812</v>
       </c>
-      <c r="E49" s="93">
+      <c r="E49" s="91">
         <v>76</v>
       </c>
-      <c r="F49" s="143"/>
-      <c r="G49" s="143"/>
-      <c r="H49" s="144"/>
-      <c r="I49" s="144"/>
-      <c r="J49" s="95"/>
-      <c r="K49" s="95"/>
+      <c r="F49" s="140"/>
+      <c r="G49" s="140"/>
+      <c r="H49" s="141"/>
+      <c r="I49" s="141"/>
+      <c r="J49" s="93"/>
+      <c r="K49" s="93"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="142"/>
-      <c r="B50" s="94" t="s">
+      <c r="A50" s="139"/>
+      <c r="B50" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="C50" s="93">
+      <c r="C50" s="91">
         <f t="shared" si="3"/>
         <v>83812</v>
       </c>
-      <c r="D50" s="93">
+      <c r="D50" s="91">
         <f t="shared" si="2"/>
         <v>83888</v>
       </c>
-      <c r="E50" s="93">
+      <c r="E50" s="91">
         <v>76</v>
       </c>
-      <c r="F50" s="143"/>
-      <c r="G50" s="143"/>
-      <c r="H50" s="144"/>
-      <c r="I50" s="144"/>
-      <c r="J50" s="95"/>
-      <c r="K50" s="95"/>
+      <c r="F50" s="140"/>
+      <c r="G50" s="140"/>
+      <c r="H50" s="141"/>
+      <c r="I50" s="141"/>
+      <c r="J50" s="93"/>
+      <c r="K50" s="93"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="142"/>
-      <c r="B51" s="94" t="s">
+      <c r="A51" s="139"/>
+      <c r="B51" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="C51" s="93">
+      <c r="C51" s="91">
         <f>D50</f>
         <v>83888</v>
       </c>
-      <c r="D51" s="93">
+      <c r="D51" s="91">
         <f>C51+E51</f>
         <v>83964</v>
       </c>
-      <c r="E51" s="93">
+      <c r="E51" s="91">
         <v>76</v>
       </c>
-      <c r="F51" s="143"/>
-      <c r="G51" s="143"/>
-      <c r="H51" s="144"/>
-      <c r="I51" s="144"/>
-      <c r="J51" s="95"/>
-      <c r="K51" s="95"/>
+      <c r="F51" s="140"/>
+      <c r="G51" s="140"/>
+      <c r="H51" s="141"/>
+      <c r="I51" s="141"/>
+      <c r="J51" s="93"/>
+      <c r="K51" s="93"/>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="145"/>
-      <c r="B52" s="96"/>
-      <c r="C52" s="97"/>
-      <c r="D52" s="97"/>
-      <c r="E52" s="97"/>
-      <c r="F52" s="148">
+      <c r="A52" s="142"/>
+      <c r="B52" s="94"/>
+      <c r="C52" s="95"/>
+      <c r="D52" s="95"/>
+      <c r="E52" s="95"/>
+      <c r="F52" s="145">
         <f>SUM(E52:E56)</f>
         <v>0</v>
       </c>
-      <c r="G52" s="148">
+      <c r="G52" s="145">
         <f>G47+F52</f>
         <v>2964</v>
       </c>
-      <c r="H52" s="147">
+      <c r="H52" s="144">
         <f>F52*$I$2</f>
         <v>0</v>
       </c>
-      <c r="I52" s="147">
+      <c r="I52" s="144">
         <f>I47+H52</f>
         <v>1333.8</v>
       </c>
-      <c r="J52" s="98"/>
-      <c r="K52" s="98"/>
+      <c r="J52" s="96"/>
+      <c r="K52" s="96"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="145"/>
-      <c r="B53" s="96"/>
-      <c r="C53" s="97"/>
-      <c r="D53" s="97"/>
-      <c r="E53" s="97"/>
-      <c r="F53" s="148"/>
-      <c r="G53" s="148"/>
-      <c r="H53" s="147"/>
-      <c r="I53" s="147"/>
-      <c r="J53" s="98"/>
-      <c r="K53" s="98"/>
+      <c r="A53" s="142"/>
+      <c r="B53" s="94"/>
+      <c r="C53" s="95"/>
+      <c r="D53" s="95"/>
+      <c r="E53" s="95"/>
+      <c r="F53" s="145"/>
+      <c r="G53" s="145"/>
+      <c r="H53" s="144"/>
+      <c r="I53" s="144"/>
+      <c r="J53" s="96"/>
+      <c r="K53" s="96"/>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="145"/>
-      <c r="B54" s="96"/>
-      <c r="C54" s="97"/>
-      <c r="D54" s="97"/>
-      <c r="E54" s="97"/>
-      <c r="F54" s="148"/>
-      <c r="G54" s="148"/>
-      <c r="H54" s="147"/>
-      <c r="I54" s="147"/>
-      <c r="J54" s="98"/>
-      <c r="K54" s="98"/>
+      <c r="A54" s="142"/>
+      <c r="B54" s="94"/>
+      <c r="C54" s="95"/>
+      <c r="D54" s="95"/>
+      <c r="E54" s="95"/>
+      <c r="F54" s="145"/>
+      <c r="G54" s="145"/>
+      <c r="H54" s="144"/>
+      <c r="I54" s="144"/>
+      <c r="J54" s="96"/>
+      <c r="K54" s="96"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="145"/>
-      <c r="B55" s="96"/>
-      <c r="C55" s="97"/>
-      <c r="D55" s="97"/>
-      <c r="E55" s="97"/>
-      <c r="F55" s="148"/>
-      <c r="G55" s="148"/>
-      <c r="H55" s="147"/>
-      <c r="I55" s="147"/>
-      <c r="J55" s="98"/>
-      <c r="K55" s="98"/>
+      <c r="A55" s="142"/>
+      <c r="B55" s="94"/>
+      <c r="C55" s="95"/>
+      <c r="D55" s="95"/>
+      <c r="E55" s="95"/>
+      <c r="F55" s="145"/>
+      <c r="G55" s="145"/>
+      <c r="H55" s="144"/>
+      <c r="I55" s="144"/>
+      <c r="J55" s="96"/>
+      <c r="K55" s="96"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="145"/>
-      <c r="B56" s="96"/>
-      <c r="C56" s="97"/>
-      <c r="D56" s="97"/>
-      <c r="E56" s="97"/>
-      <c r="F56" s="148"/>
-      <c r="G56" s="148"/>
-      <c r="H56" s="147"/>
-      <c r="I56" s="147"/>
-      <c r="J56" s="98"/>
-      <c r="K56" s="98"/>
+      <c r="A56" s="142"/>
+      <c r="B56" s="94"/>
+      <c r="C56" s="95"/>
+      <c r="D56" s="95"/>
+      <c r="E56" s="95"/>
+      <c r="F56" s="145"/>
+      <c r="G56" s="145"/>
+      <c r="H56" s="144"/>
+      <c r="I56" s="144"/>
+      <c r="J56" s="96"/>
+      <c r="K56" s="96"/>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="142"/>
-      <c r="B57" s="94"/>
-      <c r="C57" s="93"/>
-      <c r="D57" s="93"/>
-      <c r="E57" s="93"/>
-      <c r="F57" s="143">
+      <c r="A57" s="139"/>
+      <c r="B57" s="92"/>
+      <c r="C57" s="91"/>
+      <c r="D57" s="91"/>
+      <c r="E57" s="91"/>
+      <c r="F57" s="140">
         <f>SUM(E57:E61)</f>
         <v>0</v>
       </c>
-      <c r="G57" s="143">
+      <c r="G57" s="140">
         <f>G52+F57</f>
         <v>2964</v>
       </c>
-      <c r="H57" s="144">
+      <c r="H57" s="141">
         <f>F57*$I$2</f>
         <v>0</v>
       </c>
-      <c r="I57" s="144">
+      <c r="I57" s="141">
         <f>I52+H57</f>
         <v>1333.8</v>
       </c>
-      <c r="J57" s="95"/>
-      <c r="K57" s="95"/>
+      <c r="J57" s="93"/>
+      <c r="K57" s="93"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="142"/>
-      <c r="B58" s="94"/>
-      <c r="C58" s="93"/>
-      <c r="D58" s="93"/>
-      <c r="E58" s="93"/>
-      <c r="F58" s="143"/>
-      <c r="G58" s="143"/>
-      <c r="H58" s="144"/>
-      <c r="I58" s="144"/>
-      <c r="J58" s="95"/>
-      <c r="K58" s="95"/>
+      <c r="A58" s="139"/>
+      <c r="B58" s="92"/>
+      <c r="C58" s="91"/>
+      <c r="D58" s="91"/>
+      <c r="E58" s="91"/>
+      <c r="F58" s="140"/>
+      <c r="G58" s="140"/>
+      <c r="H58" s="141"/>
+      <c r="I58" s="141"/>
+      <c r="J58" s="93"/>
+      <c r="K58" s="93"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="142"/>
-      <c r="B59" s="94"/>
-      <c r="C59" s="93"/>
-      <c r="D59" s="93"/>
-      <c r="E59" s="93"/>
-      <c r="F59" s="143"/>
-      <c r="G59" s="143"/>
-      <c r="H59" s="144"/>
-      <c r="I59" s="144"/>
-      <c r="J59" s="95"/>
-      <c r="K59" s="95"/>
+      <c r="A59" s="139"/>
+      <c r="B59" s="92"/>
+      <c r="C59" s="91"/>
+      <c r="D59" s="91"/>
+      <c r="E59" s="91"/>
+      <c r="F59" s="140"/>
+      <c r="G59" s="140"/>
+      <c r="H59" s="141"/>
+      <c r="I59" s="141"/>
+      <c r="J59" s="93"/>
+      <c r="K59" s="93"/>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="142"/>
-      <c r="B60" s="94"/>
-      <c r="C60" s="93"/>
-      <c r="D60" s="93"/>
-      <c r="E60" s="93"/>
-      <c r="F60" s="143"/>
-      <c r="G60" s="143"/>
-      <c r="H60" s="144"/>
-      <c r="I60" s="144"/>
-      <c r="J60" s="95"/>
-      <c r="K60" s="95"/>
+      <c r="A60" s="139"/>
+      <c r="B60" s="92"/>
+      <c r="C60" s="91"/>
+      <c r="D60" s="91"/>
+      <c r="E60" s="91"/>
+      <c r="F60" s="140"/>
+      <c r="G60" s="140"/>
+      <c r="H60" s="141"/>
+      <c r="I60" s="141"/>
+      <c r="J60" s="93"/>
+      <c r="K60" s="93"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="142"/>
-      <c r="B61" s="94"/>
-      <c r="C61" s="93"/>
-      <c r="D61" s="93"/>
-      <c r="E61" s="93"/>
-      <c r="F61" s="143"/>
-      <c r="G61" s="143"/>
-      <c r="H61" s="144"/>
-      <c r="I61" s="144"/>
-      <c r="J61" s="95"/>
-      <c r="K61" s="95"/>
+      <c r="A61" s="139"/>
+      <c r="B61" s="92"/>
+      <c r="C61" s="91"/>
+      <c r="D61" s="91"/>
+      <c r="E61" s="91"/>
+      <c r="F61" s="140"/>
+      <c r="G61" s="140"/>
+      <c r="H61" s="141"/>
+      <c r="I61" s="141"/>
+      <c r="J61" s="93"/>
+      <c r="K61" s="93"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="145"/>
-      <c r="B62" s="96"/>
-      <c r="C62" s="97"/>
-      <c r="D62" s="97"/>
-      <c r="E62" s="97"/>
-      <c r="F62" s="148">
+      <c r="A62" s="142"/>
+      <c r="B62" s="94"/>
+      <c r="C62" s="95"/>
+      <c r="D62" s="95"/>
+      <c r="E62" s="95"/>
+      <c r="F62" s="145">
         <f>SUM(E62:E66)</f>
         <v>0</v>
       </c>
-      <c r="G62" s="148">
+      <c r="G62" s="145">
         <f>G57+F62</f>
         <v>2964</v>
       </c>
-      <c r="H62" s="147">
+      <c r="H62" s="144">
         <f>F62*$I$2</f>
         <v>0</v>
       </c>
-      <c r="I62" s="147">
+      <c r="I62" s="144">
         <f>I57+H62</f>
         <v>1333.8</v>
       </c>
-      <c r="J62" s="98"/>
-      <c r="K62" s="98"/>
+      <c r="J62" s="96"/>
+      <c r="K62" s="96"/>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="145"/>
-      <c r="B63" s="96"/>
-      <c r="C63" s="97"/>
-      <c r="D63" s="97"/>
-      <c r="E63" s="97"/>
-      <c r="F63" s="148"/>
-      <c r="G63" s="148"/>
-      <c r="H63" s="147"/>
-      <c r="I63" s="147"/>
-      <c r="J63" s="98"/>
-      <c r="K63" s="98"/>
+      <c r="A63" s="142"/>
+      <c r="B63" s="94"/>
+      <c r="C63" s="95"/>
+      <c r="D63" s="95"/>
+      <c r="E63" s="95"/>
+      <c r="F63" s="145"/>
+      <c r="G63" s="145"/>
+      <c r="H63" s="144"/>
+      <c r="I63" s="144"/>
+      <c r="J63" s="96"/>
+      <c r="K63" s="96"/>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="145"/>
-      <c r="B64" s="96"/>
-      <c r="C64" s="97"/>
-      <c r="D64" s="97"/>
-      <c r="E64" s="97"/>
-      <c r="F64" s="148"/>
-      <c r="G64" s="148"/>
-      <c r="H64" s="147"/>
-      <c r="I64" s="147"/>
-      <c r="J64" s="98"/>
-      <c r="K64" s="98"/>
+      <c r="A64" s="142"/>
+      <c r="B64" s="94"/>
+      <c r="C64" s="95"/>
+      <c r="D64" s="95"/>
+      <c r="E64" s="95"/>
+      <c r="F64" s="145"/>
+      <c r="G64" s="145"/>
+      <c r="H64" s="144"/>
+      <c r="I64" s="144"/>
+      <c r="J64" s="96"/>
+      <c r="K64" s="96"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="145"/>
-      <c r="B65" s="96"/>
-      <c r="C65" s="97"/>
-      <c r="D65" s="97"/>
-      <c r="E65" s="97"/>
-      <c r="F65" s="148"/>
-      <c r="G65" s="148"/>
-      <c r="H65" s="147"/>
-      <c r="I65" s="147"/>
-      <c r="J65" s="98"/>
-      <c r="K65" s="98"/>
+      <c r="A65" s="142"/>
+      <c r="B65" s="94"/>
+      <c r="C65" s="95"/>
+      <c r="D65" s="95"/>
+      <c r="E65" s="95"/>
+      <c r="F65" s="145"/>
+      <c r="G65" s="145"/>
+      <c r="H65" s="144"/>
+      <c r="I65" s="144"/>
+      <c r="J65" s="96"/>
+      <c r="K65" s="96"/>
     </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="145"/>
-      <c r="B66" s="96"/>
-      <c r="C66" s="97"/>
-      <c r="D66" s="97"/>
-      <c r="E66" s="97"/>
-      <c r="F66" s="148"/>
-      <c r="G66" s="148"/>
-      <c r="H66" s="147"/>
-      <c r="I66" s="147"/>
-      <c r="J66" s="98"/>
-      <c r="K66" s="98"/>
+      <c r="A66" s="142"/>
+      <c r="B66" s="94"/>
+      <c r="C66" s="95"/>
+      <c r="D66" s="95"/>
+      <c r="E66" s="95"/>
+      <c r="F66" s="145"/>
+      <c r="G66" s="145"/>
+      <c r="H66" s="144"/>
+      <c r="I66" s="144"/>
+      <c r="J66" s="96"/>
+      <c r="K66" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="61">

--- a/Lava3.TestFiles/TestFiles/Test.xlsx
+++ b/Lava3.TestFiles/TestFiles/Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="585" windowWidth="15555" windowHeight="13155" tabRatio="554" activeTab="2"/>
+    <workbookView xWindow="510" yWindow="585" windowWidth="15555" windowHeight="13155" tabRatio="554"/>
   </bookViews>
   <sheets>
     <sheet name="Annual Summary" sheetId="2" r:id="rId1"/>
@@ -3543,9 +3543,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB75"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="12"/>
@@ -5067,7 +5067,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>

--- a/Lava3.TestFiles/TestFiles/Test.xlsx
+++ b/Lava3.TestFiles/TestFiles/Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="585" windowWidth="15555" windowHeight="13155" tabRatio="554"/>
+    <workbookView xWindow="510" yWindow="585" windowWidth="15555" windowHeight="13155" tabRatio="554" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Annual Summary" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="115">
   <si>
     <t>Description</t>
   </si>
@@ -289,9 +289,6 @@
   </si>
   <si>
     <t>PluralSight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SALARY </t>
   </si>
   <si>
     <t>blah</t>
@@ -390,10 +387,17 @@
     <numFmt numFmtId="171" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="172" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="47">
+  <fonts count="48">
     <font>
       <sz val="10"/>
       <name val="Courier"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1077,1089 +1081,1089 @@
   </borders>
   <cellStyleXfs count="931">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="14" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="22" borderId="9"/>
-    <xf numFmtId="0" fontId="42" fillId="23" borderId="12"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="19" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="8"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="9"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11"/>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="22" borderId="9"/>
+    <xf numFmtId="0" fontId="43" fillId="23" borderId="12"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="7"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="21" borderId="9"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="11"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2"/>
-    <xf numFmtId="0" fontId="39" fillId="22" borderId="10"/>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="13"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="40" fillId="22" borderId="10"/>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="13"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="148">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" xfId="756" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="801" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="756" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="801" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="26" fillId="0" borderId="0" xfId="756" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="27" fillId="0" borderId="0" xfId="756" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="748" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="801" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="801" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="18" fillId="18" borderId="1" xfId="748" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="18" fillId="18" borderId="1" xfId="756" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="19" fillId="18" borderId="1" xfId="748" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="19" fillId="18" borderId="1" xfId="756" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="19" fillId="0" borderId="1" xfId="756" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="927" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="20" fillId="0" borderId="1" xfId="756" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="927" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="27" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="28" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="30" fillId="2" borderId="3" xfId="850" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="31" fillId="2" borderId="3" xfId="850" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="30" fillId="2" borderId="4" xfId="850" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="31" fillId="2" borderId="4" xfId="850" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="30" fillId="2" borderId="0" xfId="850" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="31" fillId="2" borderId="0" xfId="850" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="756" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="27" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="28" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="28" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="770" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="801" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="801" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="770" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="801" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="801" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="25" fillId="12" borderId="5" xfId="743" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="26" fillId="12" borderId="5" xfId="743" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="770" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="770" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="748" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="801" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="801" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="801" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="763" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="801" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" xfId="763" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="45" fillId="4" borderId="0" xfId="773" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="45" fillId="4" borderId="0" xfId="773" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="46" fillId="4" borderId="0" xfId="773" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="46" fillId="4" borderId="0" xfId="773" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="45" fillId="4" borderId="0" xfId="773" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="46" fillId="4" borderId="0" xfId="773" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2173,81 +2177,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="18" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="19" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="756" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="756" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="756" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" xfId="756" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="923" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" xfId="800" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="4" fillId="35" borderId="0" xfId="800" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="4" fillId="2" borderId="2" xfId="923" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="770"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="923" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" xfId="800" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="3" fillId="35" borderId="0" xfId="800" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="2" xfId="923" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="770"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="923" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="923" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="19" fillId="0" borderId="0" xfId="756" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="801" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="801" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="763" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="45" fillId="4" borderId="0" xfId="773" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="45" fillId="4" borderId="0" xfId="773" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="45" fillId="4" borderId="0" xfId="773" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="4" borderId="0" xfId="773" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="20" fillId="0" borderId="0" xfId="756" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="801" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="801" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" xfId="763" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="46" fillId="4" borderId="0" xfId="773" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="46" fillId="4" borderId="0" xfId="773" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="46" fillId="4" borderId="0" xfId="773" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="46" fillId="4" borderId="0" xfId="773" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="923" applyFont="1"/>
   </cellXfs>
   <cellStyles count="931">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -3543,7 +3548,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+    <sheetView zoomScale="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
@@ -3569,7 +3574,7 @@
   <sheetData>
     <row r="1" spans="1:25" ht="12.75">
       <c r="A1" s="81" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" s="81"/>
       <c r="D1" s="21"/>
@@ -3936,7 +3941,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="129" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
@@ -3956,7 +3961,7 @@
         <v>42491</v>
       </c>
       <c r="B14" s="78" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C14" s="1">
         <v>5.12</v>
@@ -3987,7 +3992,7 @@
         <v>42492</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C15" s="133">
         <v>20.45</v>
@@ -4226,10 +4231,10 @@
         <v>68</v>
       </c>
       <c r="J23" s="89" t="s">
+        <v>109</v>
+      </c>
+      <c r="K23" s="130" t="s">
         <v>110</v>
-      </c>
-      <c r="K23" s="130" t="s">
-        <v>111</v>
       </c>
       <c r="N23" s="11"/>
       <c r="O23" s="24"/>
@@ -4250,10 +4255,10 @@
     <row r="24" spans="1:28" ht="12.75">
       <c r="A24" s="19"/>
       <c r="B24" s="88" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="123" t="s">
         <v>106</v>
-      </c>
-      <c r="C24" s="123" t="s">
-        <v>107</v>
       </c>
       <c r="D24" s="131">
         <v>42370</v>
@@ -4300,10 +4305,10 @@
     <row r="25" spans="1:28" s="106" customFormat="1" ht="15.75">
       <c r="A25" s="104"/>
       <c r="B25" s="132" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="123" t="s">
         <v>108</v>
-      </c>
-      <c r="C25" s="123" t="s">
-        <v>109</v>
       </c>
       <c r="D25" s="131">
         <v>42401</v>
@@ -4856,9 +4861,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -4993,8 +4998,8 @@
       <c r="A7" s="122">
         <v>42610</v>
       </c>
-      <c r="B7" s="119" t="s">
-        <v>89</v>
+      <c r="B7" s="147" t="s">
+        <v>91</v>
       </c>
       <c r="C7" s="119">
         <v>0</v>
@@ -5034,7 +5039,7 @@
         <v>42612</v>
       </c>
       <c r="B9" s="124" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C9" s="119">
         <v>14.5</v>
@@ -5188,7 +5193,7 @@
         <v>42581</v>
       </c>
       <c r="D5" s="118" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E5" s="56">
         <v>-22.15</v>
@@ -5228,7 +5233,7 @@
         <v>42585</v>
       </c>
       <c r="D7" s="118" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E7" s="56">
         <v>-6.85</v>
@@ -5258,7 +5263,7 @@
         <v>42592</v>
       </c>
       <c r="D9" s="118" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E9" s="56">
         <v>-174</v>
@@ -5271,7 +5276,7 @@
         <v>42593</v>
       </c>
       <c r="D10" s="118" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E10" s="56">
         <v>-35.020000000000003</v>
@@ -5284,7 +5289,7 @@
         <v>42594</v>
       </c>
       <c r="D11" s="118" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E11" s="56">
         <v>-11.99</v>
@@ -5484,7 +5489,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -5547,7 +5552,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="99" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="126" t="s">
         <v>12</v>
@@ -5599,7 +5604,7 @@
     </row>
     <row r="18" spans="1:3" s="39" customFormat="1">
       <c r="A18" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B18" s="39" t="s">
         <v>6</v>
@@ -5607,7 +5612,7 @@
     </row>
     <row r="19" spans="1:3" s="62" customFormat="1">
       <c r="A19" s="92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B19" s="74" t="s">
         <v>8</v>
@@ -5615,7 +5620,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="116" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="99" t="s">
         <v>7</v>
@@ -5623,7 +5628,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="92" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B21" s="69" t="s">
         <v>9</v>
@@ -5631,7 +5636,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="116" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -5639,7 +5644,7 @@
     </row>
     <row r="23" spans="1:3" s="47" customFormat="1">
       <c r="A23" s="116" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B23" s="47" t="s">
         <v>10</v>
@@ -5669,10 +5674,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="116" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B27" s="116" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -5692,7 +5697,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B33" s="102" t="s">
         <v>25</v>
@@ -5700,24 +5705,24 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="92" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B34" s="69" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="116" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="92" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B35" s="100" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="116" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -5800,7 +5805,7 @@
         <v>58</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I3" s="49" t="s">
         <v>78</v>
